--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="115">
   <si>
     <t>掛牌時間</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>2023/09/08 13:55</t>
+  </si>
+  <si>
+    <t>2023/09/14 13:40</t>
   </si>
   <si>
     <t>1968回售</t>
@@ -713,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -735,10 +738,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -746,10 +749,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -757,10 +760,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -768,10 +771,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -779,10 +782,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -790,10 +793,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -801,10 +804,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -812,10 +815,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -823,10 +826,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -834,10 +837,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -845,10 +848,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -856,10 +859,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -867,10 +870,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -878,10 +881,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -889,10 +892,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -900,10 +903,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -911,10 +914,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -922,10 +925,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -933,10 +936,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -944,10 +947,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -955,10 +958,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -966,10 +969,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -977,10 +980,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -988,10 +991,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -999,10 +1002,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1010,10 +1013,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1021,10 +1024,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1032,10 +1035,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1043,10 +1046,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1054,10 +1057,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1065,10 +1068,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1076,10 +1079,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1087,10 +1090,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1098,10 +1101,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1109,10 +1112,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1120,10 +1123,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1131,10 +1134,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1142,10 +1145,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1153,10 +1156,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1164,10 +1167,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1175,10 +1178,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1186,10 +1189,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1197,10 +1200,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1208,10 +1211,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C45" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1219,10 +1222,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1230,10 +1233,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1241,10 +1244,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1252,10 +1255,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1263,10 +1266,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C50" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1274,10 +1277,21 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
         <v>53</v>
       </c>
-      <c r="C51" t="s">
-        <v>84</v>
+      <c r="B52" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="185">
   <si>
     <t>掛牌時間</t>
   </si>
@@ -178,6 +178,87 @@
     <t>2023/09/14 13:40</t>
   </si>
   <si>
+    <t>2023/09/15 19:53</t>
+  </si>
+  <si>
+    <t>2023/09/19 19:44</t>
+  </si>
+  <si>
+    <t>2023/09/23 08:40</t>
+  </si>
+  <si>
+    <t>2023/10/06 19:59</t>
+  </si>
+  <si>
+    <t>2023/10/11 19:57</t>
+  </si>
+  <si>
+    <t>2023/10/13 12:35</t>
+  </si>
+  <si>
+    <t>2023/10/13 19:58</t>
+  </si>
+  <si>
+    <t>2023/10/18 18:41</t>
+  </si>
+  <si>
+    <t>2023/10/27 19:47</t>
+  </si>
+  <si>
+    <t>2023/11/01 19:27</t>
+  </si>
+  <si>
+    <t>2023/11/07 19:55</t>
+  </si>
+  <si>
+    <t>2023/11/17 09:40</t>
+  </si>
+  <si>
+    <t>2023/11/22 15:20</t>
+  </si>
+  <si>
+    <t>2023/11/24 19:30</t>
+  </si>
+  <si>
+    <t>2023/12/01 19:58</t>
+  </si>
+  <si>
+    <t>2023/12/05 19:40</t>
+  </si>
+  <si>
+    <t>2023/12/07 19:52</t>
+  </si>
+  <si>
+    <t>2023/12/14 14:20</t>
+  </si>
+  <si>
+    <t>2023/12/15 19:25</t>
+  </si>
+  <si>
+    <t>2023/12/25 09:30</t>
+  </si>
+  <si>
+    <t>2024/01/19 19:40</t>
+  </si>
+  <si>
+    <t>2024/01/26 11:25</t>
+  </si>
+  <si>
+    <t>2024/01/26 19:46</t>
+  </si>
+  <si>
+    <t>2024/02/16 19:55</t>
+  </si>
+  <si>
+    <t>2024/02/19 14:30</t>
+  </si>
+  <si>
+    <t>2024/04/02 19:52</t>
+  </si>
+  <si>
+    <t>2024/04/03 19:58</t>
+  </si>
+  <si>
     <t>1968回售</t>
   </si>
   <si>
@@ -271,6 +352,72 @@
     <t>1974回售</t>
   </si>
   <si>
+    <t>1868回售</t>
+  </si>
+  <si>
+    <t>1912回售</t>
+  </si>
+  <si>
+    <t>1947回售</t>
+  </si>
+  <si>
+    <t>1998回售</t>
+  </si>
+  <si>
+    <t>2046回售</t>
+  </si>
+  <si>
+    <t>2050回售</t>
+  </si>
+  <si>
+    <t>2012回售</t>
+  </si>
+  <si>
+    <t>2018回售</t>
+  </si>
+  <si>
+    <t>2013回售</t>
+  </si>
+  <si>
+    <t>2008回售</t>
+  </si>
+  <si>
+    <t>2039回售</t>
+  </si>
+  <si>
+    <t>2030回售</t>
+  </si>
+  <si>
+    <t>2038回售</t>
+  </si>
+  <si>
+    <t>2028回售</t>
+  </si>
+  <si>
+    <t>2042回售</t>
+  </si>
+  <si>
+    <t>2032回售</t>
+  </si>
+  <si>
+    <t>2017回售</t>
+  </si>
+  <si>
+    <t>2015回售</t>
+  </si>
+  <si>
+    <t>2004回售</t>
+  </si>
+  <si>
+    <t>2024回售</t>
+  </si>
+  <si>
+    <t>2307回售</t>
+  </si>
+  <si>
+    <t>2323回售</t>
+  </si>
+  <si>
     <t>1994買進</t>
   </si>
   <si>
@@ -359,6 +506,69 @@
   </si>
   <si>
     <t>1988買進</t>
+  </si>
+  <si>
+    <t>1897買進</t>
+  </si>
+  <si>
+    <t>1942買進</t>
+  </si>
+  <si>
+    <t>1977買進</t>
+  </si>
+  <si>
+    <t>2029買進</t>
+  </si>
+  <si>
+    <t>2077買進</t>
+  </si>
+  <si>
+    <t>2081買進</t>
+  </si>
+  <si>
+    <t>2043買進</t>
+  </si>
+  <si>
+    <t>2045買進</t>
+  </si>
+  <si>
+    <t>2040買進</t>
+  </si>
+  <si>
+    <t>2039買進</t>
+  </si>
+  <si>
+    <t>2070買進</t>
+  </si>
+  <si>
+    <t>2061買進</t>
+  </si>
+  <si>
+    <t>2069買進</t>
+  </si>
+  <si>
+    <t>2055買進</t>
+  </si>
+  <si>
+    <t>2063買進</t>
+  </si>
+  <si>
+    <t>2044買進</t>
+  </si>
+  <si>
+    <t>2046買進</t>
+  </si>
+  <si>
+    <t>2035買進</t>
+  </si>
+  <si>
+    <t>2051買進</t>
+  </si>
+  <si>
+    <t>2341買進</t>
+  </si>
+  <si>
+    <t>2357買進</t>
   </si>
 </sst>
 </file>
@@ -716,7 +926,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -738,10 +948,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -749,10 +959,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -760,10 +970,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -771,10 +981,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -782,10 +992,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -793,10 +1003,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -804,10 +1014,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -815,10 +1025,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -826,10 +1036,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -837,10 +1047,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -848,10 +1058,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -859,10 +1069,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -870,10 +1080,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -881,10 +1091,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -892,10 +1102,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -903,10 +1113,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -914,10 +1124,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -925,10 +1135,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -936,10 +1146,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -947,10 +1157,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -958,10 +1168,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -969,10 +1179,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -980,10 +1190,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -991,10 +1201,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1002,10 +1212,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1013,10 +1223,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1024,10 +1234,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1035,10 +1245,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1046,10 +1256,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1057,10 +1267,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1068,10 +1278,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1079,10 +1289,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1090,10 +1300,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1101,10 +1311,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1112,10 +1322,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1123,10 +1333,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1134,10 +1344,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C38" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1145,10 +1355,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C39" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1156,10 +1366,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1167,10 +1377,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1178,10 +1388,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="C42" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1189,10 +1399,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1200,10 +1410,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="C44" t="s">
-        <v>110</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1211,10 +1421,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="C45" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1222,10 +1432,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="C46" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1233,10 +1443,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="C47" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1244,10 +1454,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1255,10 +1465,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="C49" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1266,10 +1476,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="C50" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1277,10 +1487,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="C51" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1288,10 +1498,307 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>119</v>
+      </c>
+      <c r="C64" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
         <v>66</v>
       </c>
-      <c r="C52" t="s">
-        <v>97</v>
+      <c r="B65" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>121</v>
+      </c>
+      <c r="C66" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
+        <v>123</v>
+      </c>
+      <c r="C68" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>125</v>
+      </c>
+      <c r="C70" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" t="s">
+        <v>126</v>
+      </c>
+      <c r="C72" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
+        <v>128</v>
+      </c>
+      <c r="C74" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" t="s">
+        <v>129</v>
+      </c>
+      <c r="C75" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
+        <v>130</v>
+      </c>
+      <c r="C76" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" t="s">
+        <v>131</v>
+      </c>
+      <c r="C77" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" t="s">
+        <v>132</v>
+      </c>
+      <c r="C78" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" t="s">
+        <v>133</v>
+      </c>
+      <c r="C79" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="213">
   <si>
     <t>掛牌時間</t>
   </si>
@@ -259,6 +259,36 @@
     <t>2024/04/03 19:58</t>
   </si>
   <si>
+    <t>2024/04/08 19:56</t>
+  </si>
+  <si>
+    <t>2024/04/09 08:40</t>
+  </si>
+  <si>
+    <t>2024/04/09 15:15</t>
+  </si>
+  <si>
+    <t>2024/04/15 19:56</t>
+  </si>
+  <si>
+    <t>2024/04/16 14:40</t>
+  </si>
+  <si>
+    <t>2024/04/18 11:50</t>
+  </si>
+  <si>
+    <t>2024/04/19 19:40</t>
+  </si>
+  <si>
+    <t>2024/04/23 18:08</t>
+  </si>
+  <si>
+    <t>2024/04/24 19:20</t>
+  </si>
+  <si>
+    <t>2024/04/24 19:55</t>
+  </si>
+  <si>
     <t>1968回售</t>
   </si>
   <si>
@@ -418,6 +448,36 @@
     <t>2323回售</t>
   </si>
   <si>
+    <t>2390回售</t>
+  </si>
+  <si>
+    <t>2394回售</t>
+  </si>
+  <si>
+    <t>2405回售</t>
+  </si>
+  <si>
+    <t>2433回售</t>
+  </si>
+  <si>
+    <t>2477回售</t>
+  </si>
+  <si>
+    <t>2455回售</t>
+  </si>
+  <si>
+    <t>2465回售</t>
+  </si>
+  <si>
+    <t>2385回售</t>
+  </si>
+  <si>
+    <t>2398回售</t>
+  </si>
+  <si>
+    <t>2400回售</t>
+  </si>
+  <si>
     <t>1994買進</t>
   </si>
   <si>
@@ -569,6 +629,30 @@
   </si>
   <si>
     <t>2357買進</t>
+  </si>
+  <si>
+    <t>2424買進</t>
+  </si>
+  <si>
+    <t>2435買進</t>
+  </si>
+  <si>
+    <t>2468買進</t>
+  </si>
+  <si>
+    <t>2508買進</t>
+  </si>
+  <si>
+    <t>2486買進</t>
+  </si>
+  <si>
+    <t>2500買進</t>
+  </si>
+  <si>
+    <t>2420買進</t>
+  </si>
+  <si>
+    <t>2433買進</t>
   </si>
 </sst>
 </file>
@@ -926,7 +1010,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -948,10 +1032,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -959,10 +1043,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -970,10 +1054,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -981,10 +1065,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -992,10 +1076,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1003,10 +1087,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1014,10 +1098,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1025,10 +1109,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1036,10 +1120,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1047,10 +1131,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1058,10 +1142,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1069,10 +1153,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1080,10 +1164,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1091,10 +1175,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1102,10 +1186,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1113,10 +1197,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1124,10 +1208,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1135,10 +1219,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1146,10 +1230,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1157,10 +1241,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1168,10 +1252,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1179,10 +1263,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1190,10 +1274,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C24" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1201,10 +1285,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1212,10 +1296,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1223,10 +1307,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C27" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1234,10 +1318,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C28" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1245,10 +1329,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C29" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1256,10 +1340,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C30" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1267,10 +1351,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1278,10 +1362,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C32" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1289,10 +1373,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C33" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1300,10 +1384,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C34" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1311,10 +1395,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C35" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1322,10 +1406,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C36" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1333,10 +1417,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C37" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1344,10 +1428,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C38" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1355,10 +1439,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C39" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1366,10 +1450,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C40" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1377,10 +1461,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C41" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1388,10 +1472,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C42" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1399,10 +1483,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1410,10 +1494,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C44" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1421,10 +1505,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C45" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1432,10 +1516,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C46" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1443,10 +1527,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C47" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1454,10 +1538,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C48" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1465,10 +1549,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C49" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1476,10 +1560,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C50" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1487,10 +1571,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C51" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1498,10 +1582,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C52" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1509,10 +1593,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C53" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1520,10 +1604,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C54" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1531,10 +1615,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C55" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1542,10 +1626,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C56" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1553,10 +1637,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C57" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1564,10 +1648,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C58" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1575,10 +1659,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C59" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1586,10 +1670,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C60" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1597,10 +1681,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C61" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1608,10 +1692,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C62" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1619,10 +1703,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C63" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1630,10 +1714,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C64" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1641,10 +1725,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C65" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1652,10 +1736,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C66" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1663,10 +1747,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C67" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1674,10 +1758,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C68" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1685,10 +1769,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C69" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1696,10 +1780,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C70" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1707,10 +1791,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C71" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1718,10 +1802,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C72" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1729,10 +1813,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C73" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1740,10 +1824,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C74" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1751,10 +1835,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C75" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1762,10 +1846,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C76" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1773,10 +1857,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C77" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1784,10 +1868,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C78" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1795,10 +1879,120 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C79" t="s">
-        <v>184</v>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" t="s">
+        <v>144</v>
+      </c>
+      <c r="C80" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" t="s">
+        <v>145</v>
+      </c>
+      <c r="C81" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" t="s">
+        <v>146</v>
+      </c>
+      <c r="C82" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" t="s">
+        <v>147</v>
+      </c>
+      <c r="C83" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" t="s">
+        <v>148</v>
+      </c>
+      <c r="C84" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" t="s">
+        <v>149</v>
+      </c>
+      <c r="C85" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" t="s">
+        <v>150</v>
+      </c>
+      <c r="C86" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" t="s">
+        <v>151</v>
+      </c>
+      <c r="C87" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" t="s">
+        <v>152</v>
+      </c>
+      <c r="C88" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" t="s">
+        <v>153</v>
+      </c>
+      <c r="C89" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="250">
   <si>
     <t>掛牌時間</t>
   </si>
@@ -289,6 +289,48 @@
     <t>2024/04/24 19:55</t>
   </si>
   <si>
+    <t>2024/04/25 18:47</t>
+  </si>
+  <si>
+    <t>2024/04/26 19:58</t>
+  </si>
+  <si>
+    <t>2024/04/29 19:26</t>
+  </si>
+  <si>
+    <t>2024/04/30 17:53</t>
+  </si>
+  <si>
+    <t>2024/04/30 19:54</t>
+  </si>
+  <si>
+    <t>2024/05/02 19:36</t>
+  </si>
+  <si>
+    <t>2024/05/02 19:51</t>
+  </si>
+  <si>
+    <t>2024/05/03 19:58</t>
+  </si>
+  <si>
+    <t>2024/05/07 17:12</t>
+  </si>
+  <si>
+    <t>2024/05/10 19:55</t>
+  </si>
+  <si>
+    <t>2024/05/14 09:30</t>
+  </si>
+  <si>
+    <t>2024/05/14 19:44</t>
+  </si>
+  <si>
+    <t>2024/05/16 19:40</t>
+  </si>
+  <si>
+    <t>2024/05/17 19:57</t>
+  </si>
+  <si>
     <t>1968回售</t>
   </si>
   <si>
@@ -478,6 +520,45 @@
     <t>2400回售</t>
   </si>
   <si>
+    <t>2413回售</t>
+  </si>
+  <si>
+    <t>2430回售</t>
+  </si>
+  <si>
+    <t>2402回售</t>
+  </si>
+  <si>
+    <t>2399回售</t>
+  </si>
+  <si>
+    <t>2381回售</t>
+  </si>
+  <si>
+    <t>2380回售</t>
+  </si>
+  <si>
+    <t>2371回售</t>
+  </si>
+  <si>
+    <t>2389回售</t>
+  </si>
+  <si>
+    <t>2451回售</t>
+  </si>
+  <si>
+    <t>2423回售</t>
+  </si>
+  <si>
+    <t>2422回售</t>
+  </si>
+  <si>
+    <t>2441回售</t>
+  </si>
+  <si>
+    <t>2452回售</t>
+  </si>
+  <si>
     <t>1994買進</t>
   </si>
   <si>
@@ -653,6 +734,36 @@
   </si>
   <si>
     <t>2433買進</t>
+  </si>
+  <si>
+    <t>2448買進</t>
+  </si>
+  <si>
+    <t>2465買進</t>
+  </si>
+  <si>
+    <t>2437買進</t>
+  </si>
+  <si>
+    <t>2416買進</t>
+  </si>
+  <si>
+    <t>2415買進</t>
+  </si>
+  <si>
+    <t>2406買進</t>
+  </si>
+  <si>
+    <t>2454買進</t>
+  </si>
+  <si>
+    <t>2457買進</t>
+  </si>
+  <si>
+    <t>2476買進</t>
+  </si>
+  <si>
+    <t>2488買進</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1121,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1032,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1043,10 +1154,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1054,10 +1165,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1065,10 +1176,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1076,10 +1187,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1087,10 +1198,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1098,10 +1209,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1109,10 +1220,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1120,10 +1231,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1131,10 +1242,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1142,10 +1253,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1153,10 +1264,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1164,10 +1275,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1175,10 +1286,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C15" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1186,10 +1297,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="C16" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1197,10 +1308,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1208,10 +1319,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1219,10 +1330,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C19" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1230,10 +1341,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C20" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1241,10 +1352,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1252,10 +1363,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C22" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1263,10 +1374,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1274,10 +1385,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="C24" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1285,10 +1396,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="C25" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1296,10 +1407,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="C26" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1307,10 +1418,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C27" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1318,10 +1429,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C28" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1329,10 +1440,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C29" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1340,10 +1451,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C30" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1351,10 +1462,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C31" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1362,10 +1473,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C32" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1373,10 +1484,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C33" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1384,10 +1495,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="C34" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1395,10 +1506,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C35" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1406,10 +1517,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C36" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1417,10 +1528,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C37" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1428,10 +1539,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="C38" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1439,10 +1550,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C39" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1450,10 +1561,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="C40" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1461,10 +1572,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C41" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1472,10 +1583,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C42" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1483,10 +1594,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C43" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1494,10 +1605,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C44" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1505,10 +1616,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C45" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1516,10 +1627,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C46" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1527,10 +1638,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C47" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1538,10 +1649,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="C48" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1549,10 +1660,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="C49" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1560,10 +1671,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C50" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1571,10 +1682,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C51" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1582,10 +1693,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C52" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1593,10 +1704,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C53" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1604,10 +1715,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C54" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1615,10 +1726,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C55" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1626,10 +1737,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="C56" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1637,10 +1748,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="C57" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1648,10 +1759,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C58" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1659,10 +1770,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C59" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1670,10 +1781,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C60" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1681,10 +1792,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="C61" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1692,10 +1803,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C62" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1703,10 +1814,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C63" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1714,10 +1825,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C64" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1725,10 +1836,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C65" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1736,10 +1847,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="C66" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1747,10 +1858,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C67" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1758,10 +1869,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="C68" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1769,10 +1880,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C69" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1780,10 +1891,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C70" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1791,10 +1902,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="C71" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1802,10 +1913,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="C72" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1813,10 +1924,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C73" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1824,10 +1935,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C74" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1835,10 +1946,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="C75" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1846,10 +1957,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C76" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1857,10 +1968,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="C77" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1868,10 +1979,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="C78" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1879,10 +1990,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="C79" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1890,10 +2001,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="C80" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1901,10 +2012,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="C81" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1912,10 +2023,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C82" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1923,10 +2034,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="C83" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1934,10 +2045,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="C84" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1945,10 +2056,10 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="C85" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1956,10 +2067,10 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="C86" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1967,10 +2078,10 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="C87" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1978,10 +2089,10 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="C88" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1989,10 +2100,164 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="C89" t="s">
-        <v>206</v>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" t="s">
+        <v>168</v>
+      </c>
+      <c r="C90" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" t="s">
+        <v>161</v>
+      </c>
+      <c r="C91" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" t="s">
+        <v>169</v>
+      </c>
+      <c r="C92" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" t="s">
+        <v>170</v>
+      </c>
+      <c r="C93" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" t="s">
+        <v>171</v>
+      </c>
+      <c r="C94" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" t="s">
+        <v>172</v>
+      </c>
+      <c r="C95" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" t="s">
+        <v>173</v>
+      </c>
+      <c r="C96" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" t="s">
+        <v>174</v>
+      </c>
+      <c r="C97" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" t="s">
+        <v>175</v>
+      </c>
+      <c r="C98" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" t="s">
+        <v>176</v>
+      </c>
+      <c r="C99" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" t="s">
+        <v>177</v>
+      </c>
+      <c r="C100" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" t="s">
+        <v>178</v>
+      </c>
+      <c r="C101" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" t="s">
+        <v>179</v>
+      </c>
+      <c r="C102" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" t="s">
+        <v>180</v>
+      </c>
+      <c r="C103" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="606">
   <si>
     <t>掛牌時間</t>
   </si>
@@ -331,6 +331,414 @@
     <t>2024/05/17 19:57</t>
   </si>
   <si>
+    <t>2024/05/21 11:05</t>
+  </si>
+  <si>
+    <t>2024/05/22 19:23</t>
+  </si>
+  <si>
+    <t>2024/05/23 19:57</t>
+  </si>
+  <si>
+    <t>2024/05/28 13:35</t>
+  </si>
+  <si>
+    <t>2024/05/29 09:10</t>
+  </si>
+  <si>
+    <t>2024/05/30 19:24</t>
+  </si>
+  <si>
+    <t>2024/05/31 08:40</t>
+  </si>
+  <si>
+    <t>2024/05/31 19:56</t>
+  </si>
+  <si>
+    <t>2024/06/03 15:05</t>
+  </si>
+  <si>
+    <t>2024/06/04 19:21</t>
+  </si>
+  <si>
+    <t>2024/06/06 19:51</t>
+  </si>
+  <si>
+    <t>2024/06/07 19:50</t>
+  </si>
+  <si>
+    <t>2024/06/11 19:53</t>
+  </si>
+  <si>
+    <t>2024/06/13 11:00</t>
+  </si>
+  <si>
+    <t>2024/06/13 19:42</t>
+  </si>
+  <si>
+    <t>2024/06/17 10:20</t>
+  </si>
+  <si>
+    <t>2024/06/19 11:50</t>
+  </si>
+  <si>
+    <t>2024/06/20 19:14</t>
+  </si>
+  <si>
+    <t>2024/06/21 19:52</t>
+  </si>
+  <si>
+    <t>2024/06/24 11:20</t>
+  </si>
+  <si>
+    <t>2024/06/25 19:40</t>
+  </si>
+  <si>
+    <t>2024/06/27 11:55</t>
+  </si>
+  <si>
+    <t>2024/06/28 13:45</t>
+  </si>
+  <si>
+    <t>2024/06/28 19:46</t>
+  </si>
+  <si>
+    <t>2024/07/01 18:14</t>
+  </si>
+  <si>
+    <t>2024/07/02 18:09</t>
+  </si>
+  <si>
+    <t>2024/07/03 10:05</t>
+  </si>
+  <si>
+    <t>2024/07/03 19:57</t>
+  </si>
+  <si>
+    <t>2024/07/04 12:00</t>
+  </si>
+  <si>
+    <t>2024/07/05 08:40</t>
+  </si>
+  <si>
+    <t>2024/07/05 19:50</t>
+  </si>
+  <si>
+    <t>2024/07/08 10:10</t>
+  </si>
+  <si>
+    <t>2024/07/09 18:37</t>
+  </si>
+  <si>
+    <t>2024/07/10 18:21</t>
+  </si>
+  <si>
+    <t>2024/07/11 10:45</t>
+  </si>
+  <si>
+    <t>2024/07/12 19:24</t>
+  </si>
+  <si>
+    <t>2024/07/12 19:38</t>
+  </si>
+  <si>
+    <t>2024/07/15 10:40</t>
+  </si>
+  <si>
+    <t>2024/07/16 11:40</t>
+  </si>
+  <si>
+    <t>2024/07/16 19:28</t>
+  </si>
+  <si>
+    <t>2024/07/17 19:50</t>
+  </si>
+  <si>
+    <t>2024/07/18 09:30</t>
+  </si>
+  <si>
+    <t>2024/07/19 19:58</t>
+  </si>
+  <si>
+    <t>2024/07/22 11:30</t>
+  </si>
+  <si>
+    <t>2024/07/23 19:05</t>
+  </si>
+  <si>
+    <t>2024/07/23 19:47</t>
+  </si>
+  <si>
+    <t>2024/07/26 08:40</t>
+  </si>
+  <si>
+    <t>2024/07/26 19:00</t>
+  </si>
+  <si>
+    <t>2024/07/26 19:59</t>
+  </si>
+  <si>
+    <t>2024/07/30 12:25</t>
+  </si>
+  <si>
+    <t>2024/07/31 19:53</t>
+  </si>
+  <si>
+    <t>2024/08/01 09:40</t>
+  </si>
+  <si>
+    <t>2024/08/02 12:30</t>
+  </si>
+  <si>
+    <t>2024/08/02 19:37</t>
+  </si>
+  <si>
+    <t>2024/08/05 09:50</t>
+  </si>
+  <si>
+    <t>2024/08/05 19:57</t>
+  </si>
+  <si>
+    <t>2024/08/06 09:10</t>
+  </si>
+  <si>
+    <t>2024/08/07 08:40</t>
+  </si>
+  <si>
+    <t>2024/08/07 19:55</t>
+  </si>
+  <si>
+    <t>2024/08/09 08:40</t>
+  </si>
+  <si>
+    <t>2024/08/09 19:43</t>
+  </si>
+  <si>
+    <t>2024/08/12 09:15</t>
+  </si>
+  <si>
+    <t>2024/08/12 16:38</t>
+  </si>
+  <si>
+    <t>2024/08/13 11:00</t>
+  </si>
+  <si>
+    <t>2024/08/14 13:05</t>
+  </si>
+  <si>
+    <t>2024/08/15 11:25</t>
+  </si>
+  <si>
+    <t>2024/08/16 09:05</t>
+  </si>
+  <si>
+    <t>2024/08/19 10:05</t>
+  </si>
+  <si>
+    <t>2024/08/20 10:40</t>
+  </si>
+  <si>
+    <t>2024/08/21 10:25</t>
+  </si>
+  <si>
+    <t>2024/08/21 17:51</t>
+  </si>
+  <si>
+    <t>2024/08/21 19:49</t>
+  </si>
+  <si>
+    <t>2024/08/22 11:10</t>
+  </si>
+  <si>
+    <t>2024/08/23 19:58</t>
+  </si>
+  <si>
+    <t>2024/08/27 10:00</t>
+  </si>
+  <si>
+    <t>2024/08/27 15:25</t>
+  </si>
+  <si>
+    <t>2024/08/28 09:45</t>
+  </si>
+  <si>
+    <t>2024/08/28 19:42</t>
+  </si>
+  <si>
+    <t>2024/08/29 10:20</t>
+  </si>
+  <si>
+    <t>2024/08/29 16:30</t>
+  </si>
+  <si>
+    <t>2024/08/30 18:48</t>
+  </si>
+  <si>
+    <t>2024/08/30 19:51</t>
+  </si>
+  <si>
+    <t>2024/09/02 08:40</t>
+  </si>
+  <si>
+    <t>2024/09/12 08:40</t>
+  </si>
+  <si>
+    <t>2024/09/12 19:57</t>
+  </si>
+  <si>
+    <t>2024/09/13 19:53</t>
+  </si>
+  <si>
+    <t>2024/09/16 09:40</t>
+  </si>
+  <si>
+    <t>2024/09/16 19:59</t>
+  </si>
+  <si>
+    <t>2024/09/18 11:40</t>
+  </si>
+  <si>
+    <t>2024/09/19 13:00</t>
+  </si>
+  <si>
+    <t>2024/09/19 16:45</t>
+  </si>
+  <si>
+    <t>2024/09/20 19:42</t>
+  </si>
+  <si>
+    <t>2024/09/23 10:45</t>
+  </si>
+  <si>
+    <t>2024/09/24 10:50</t>
+  </si>
+  <si>
+    <t>2024/09/25 11:25</t>
+  </si>
+  <si>
+    <t>2024/09/26 11:25</t>
+  </si>
+  <si>
+    <t>2024/09/27 09:45</t>
+  </si>
+  <si>
+    <t>2024/09/27 19:58</t>
+  </si>
+  <si>
+    <t>2024/09/30 19:39</t>
+  </si>
+  <si>
+    <t>2024/10/01 10:35</t>
+  </si>
+  <si>
+    <t>2024/10/01 19:54</t>
+  </si>
+  <si>
+    <t>2024/10/04 19:55</t>
+  </si>
+  <si>
+    <t>2024/10/08 11:25</t>
+  </si>
+  <si>
+    <t>2024/10/11 19:52</t>
+  </si>
+  <si>
+    <t>2024/10/14 19:58</t>
+  </si>
+  <si>
+    <t>2024/10/15 08:40</t>
+  </si>
+  <si>
+    <t>2024/10/15 19:55</t>
+  </si>
+  <si>
+    <t>2024/10/17 11:50</t>
+  </si>
+  <si>
+    <t>2024/10/18 19:51</t>
+  </si>
+  <si>
+    <t>2024/10/21 09:15</t>
+  </si>
+  <si>
+    <t>2024/10/22 14:35</t>
+  </si>
+  <si>
+    <t>2024/10/22 19:59</t>
+  </si>
+  <si>
+    <t>2024/10/25 11:05</t>
+  </si>
+  <si>
+    <t>2024/10/30 16:17</t>
+  </si>
+  <si>
+    <t>2024/10/30 19:58</t>
+  </si>
+  <si>
+    <t>2024/11/01 19:31</t>
+  </si>
+  <si>
+    <t>2024/11/06 08:40</t>
+  </si>
+  <si>
+    <t>2024/11/08 09:15</t>
+  </si>
+  <si>
+    <t>2024/11/11 10:10</t>
+  </si>
+  <si>
+    <t>2024/11/19 15:55</t>
+  </si>
+  <si>
+    <t>2024/11/21 14:55</t>
+  </si>
+  <si>
+    <t>2024/11/22 08:40</t>
+  </si>
+  <si>
+    <t>2024/11/26 18:52</t>
+  </si>
+  <si>
+    <t>2024/11/29 11:10</t>
+  </si>
+  <si>
+    <t>2024/11/29 19:56</t>
+  </si>
+  <si>
+    <t>2024/12/03 12:30</t>
+  </si>
+  <si>
+    <t>2024/12/04 10:30</t>
+  </si>
+  <si>
+    <t>2024/12/05 15:55</t>
+  </si>
+  <si>
+    <t>2024/12/06 08:40</t>
+  </si>
+  <si>
+    <t>2024/12/06 19:42</t>
+  </si>
+  <si>
+    <t>2024/12/09 19:42</t>
+  </si>
+  <si>
+    <t>2024/12/10 10:50</t>
+  </si>
+  <si>
+    <t>2024/12/11 10:35</t>
+  </si>
+  <si>
+    <t>2024/12/12 08:40</t>
+  </si>
+  <si>
+    <t>2024/12/13 10:25</t>
+  </si>
+  <si>
+    <t>2024/12/13 19:51</t>
+  </si>
+  <si>
     <t>1968回售</t>
   </si>
   <si>
@@ -559,6 +967,342 @@
     <t>2452回售</t>
   </si>
   <si>
+    <t>2489回售</t>
+  </si>
+  <si>
+    <t>2484回售</t>
+  </si>
+  <si>
+    <t>2412回售</t>
+  </si>
+  <si>
+    <t>2426回售</t>
+  </si>
+  <si>
+    <t>2418回售</t>
+  </si>
+  <si>
+    <t>2425回售</t>
+  </si>
+  <si>
+    <t>2420回售</t>
+  </si>
+  <si>
+    <t>2403回售</t>
+  </si>
+  <si>
+    <t>2428回售</t>
+  </si>
+  <si>
+    <t>2397回售</t>
+  </si>
+  <si>
+    <t>2387回售</t>
+  </si>
+  <si>
+    <t>2378回售</t>
+  </si>
+  <si>
+    <t>2407回售</t>
+  </si>
+  <si>
+    <t>2410回售</t>
+  </si>
+  <si>
+    <t>2438回售</t>
+  </si>
+  <si>
+    <t>2401回售</t>
+  </si>
+  <si>
+    <t>2408回售</t>
+  </si>
+  <si>
+    <t>2411回售</t>
+  </si>
+  <si>
+    <t>2415回售</t>
+  </si>
+  <si>
+    <t>2417回售</t>
+  </si>
+  <si>
+    <t>2439回售</t>
+  </si>
+  <si>
+    <t>2449回售</t>
+  </si>
+  <si>
+    <t>2446回售</t>
+  </si>
+  <si>
+    <t>2471回售</t>
+  </si>
+  <si>
+    <t>2450回售</t>
+  </si>
+  <si>
+    <t>2464回售</t>
+  </si>
+  <si>
+    <t>2470回售</t>
+  </si>
+  <si>
+    <t>2491回售</t>
+  </si>
+  <si>
+    <t>2490回售</t>
+  </si>
+  <si>
+    <t>2506回售</t>
+  </si>
+  <si>
+    <t>2527回售</t>
+  </si>
+  <si>
+    <t>2537回售</t>
+  </si>
+  <si>
+    <t>2567回售</t>
+  </si>
+  <si>
+    <t>2562回售</t>
+  </si>
+  <si>
+    <t>2515回售</t>
+  </si>
+  <si>
+    <t>2526回售</t>
+  </si>
+  <si>
+    <t>2520回售</t>
+  </si>
+  <si>
+    <t>2522回售</t>
+  </si>
+  <si>
+    <t>2476回售</t>
+  </si>
+  <si>
+    <t>2503回售</t>
+  </si>
+  <si>
+    <t>2532回售</t>
+  </si>
+  <si>
+    <t>2565回售</t>
+  </si>
+  <si>
+    <t>2575回售</t>
+  </si>
+  <si>
+    <t>2570回售</t>
+  </si>
+  <si>
+    <t>2549回售</t>
+  </si>
+  <si>
+    <t>2516回售</t>
+  </si>
+  <si>
+    <t>2488回售</t>
+  </si>
+  <si>
+    <t>2499回售</t>
+  </si>
+  <si>
+    <t>2518回售</t>
+  </si>
+  <si>
+    <t>2507回售</t>
+  </si>
+  <si>
+    <t>2514回售</t>
+  </si>
+  <si>
+    <t>2525回售</t>
+  </si>
+  <si>
+    <t>2552回售</t>
+  </si>
+  <si>
+    <t>2538回售</t>
+  </si>
+  <si>
+    <t>2531回售</t>
+  </si>
+  <si>
+    <t>2542回售</t>
+  </si>
+  <si>
+    <t>2557回售</t>
+  </si>
+  <si>
+    <t>2546回售</t>
+  </si>
+  <si>
+    <t>2568回售</t>
+  </si>
+  <si>
+    <t>2551回售</t>
+  </si>
+  <si>
+    <t>2558回售</t>
+  </si>
+  <si>
+    <t>2553回售</t>
+  </si>
+  <si>
+    <t>2563回售</t>
+  </si>
+  <si>
+    <t>2569回售</t>
+  </si>
+  <si>
+    <t>2564回售</t>
+  </si>
+  <si>
+    <t>2581回售</t>
+  </si>
+  <si>
+    <t>2617回售</t>
+  </si>
+  <si>
+    <t>2631回售</t>
+  </si>
+  <si>
+    <t>2627回售</t>
+  </si>
+  <si>
+    <t>2615回售</t>
+  </si>
+  <si>
+    <t>2630回售</t>
+  </si>
+  <si>
+    <t>2665回售</t>
+  </si>
+  <si>
+    <t>2679回售</t>
+  </si>
+  <si>
+    <t>2688回售</t>
+  </si>
+  <si>
+    <t>2710回售</t>
+  </si>
+  <si>
+    <t>2707回售</t>
+  </si>
+  <si>
+    <t>2705回售</t>
+  </si>
+  <si>
+    <t>2694回售</t>
+  </si>
+  <si>
+    <t>2667回售</t>
+  </si>
+  <si>
+    <t>2682回售</t>
+  </si>
+  <si>
+    <t>2692回售</t>
+  </si>
+  <si>
+    <t>2716回售</t>
+  </si>
+  <si>
+    <t>2715回售</t>
+  </si>
+  <si>
+    <t>2722回售</t>
+  </si>
+  <si>
+    <t>2718回售</t>
+  </si>
+  <si>
+    <t>2753回售</t>
+  </si>
+  <si>
+    <t>2771回售</t>
+  </si>
+  <si>
+    <t>2791回售</t>
+  </si>
+  <si>
+    <t>2802回售</t>
+  </si>
+  <si>
+    <t>2794回售</t>
+  </si>
+  <si>
+    <t>2843回售</t>
+  </si>
+  <si>
+    <t>2839回售</t>
+  </si>
+  <si>
+    <t>2806回售</t>
+  </si>
+  <si>
+    <t>2795回售</t>
+  </si>
+  <si>
+    <t>2779回售</t>
+  </si>
+  <si>
+    <t>2749回售</t>
+  </si>
+  <si>
+    <t>2708回售</t>
+  </si>
+  <si>
+    <t>2768回售</t>
+  </si>
+  <si>
+    <t>2778回售</t>
+  </si>
+  <si>
+    <t>2727回售</t>
+  </si>
+  <si>
+    <t>2762回售</t>
+  </si>
+  <si>
+    <t>2755回售</t>
+  </si>
+  <si>
+    <t>2754回售</t>
+  </si>
+  <si>
+    <t>2744回售</t>
+  </si>
+  <si>
+    <t>2741回售</t>
+  </si>
+  <si>
+    <t>2724回售</t>
+  </si>
+  <si>
+    <t>2726回售</t>
+  </si>
+  <si>
+    <t>2752回售</t>
+  </si>
+  <si>
+    <t>2801回售</t>
+  </si>
+  <si>
+    <t>2824回售</t>
+  </si>
+  <si>
+    <t>2789回售</t>
+  </si>
+  <si>
+    <t>2761回售</t>
+  </si>
+  <si>
     <t>1994買進</t>
   </si>
   <si>
@@ -764,6 +1508,330 @@
   </si>
   <si>
     <t>2488買進</t>
+  </si>
+  <si>
+    <t>2520買進</t>
+  </si>
+  <si>
+    <t>2443買進</t>
+  </si>
+  <si>
+    <t>2453買進</t>
+  </si>
+  <si>
+    <t>2456買進</t>
+  </si>
+  <si>
+    <t>2455買進</t>
+  </si>
+  <si>
+    <t>2438買進</t>
+  </si>
+  <si>
+    <t>2463買進</t>
+  </si>
+  <si>
+    <t>2432買進</t>
+  </si>
+  <si>
+    <t>2418買進</t>
+  </si>
+  <si>
+    <t>2413買進</t>
+  </si>
+  <si>
+    <t>2434買進</t>
+  </si>
+  <si>
+    <t>2445買進</t>
+  </si>
+  <si>
+    <t>2473買進</t>
+  </si>
+  <si>
+    <t>2421買進</t>
+  </si>
+  <si>
+    <t>2442買進</t>
+  </si>
+  <si>
+    <t>2449買進</t>
+  </si>
+  <si>
+    <t>2452買進</t>
+  </si>
+  <si>
+    <t>2474買進</t>
+  </si>
+  <si>
+    <t>2480買進</t>
+  </si>
+  <si>
+    <t>2477買進</t>
+  </si>
+  <si>
+    <t>2481買進</t>
+  </si>
+  <si>
+    <t>2502買進</t>
+  </si>
+  <si>
+    <t>2485買進</t>
+  </si>
+  <si>
+    <t>2499買進</t>
+  </si>
+  <si>
+    <t>2501買進</t>
+  </si>
+  <si>
+    <t>2527買進</t>
+  </si>
+  <si>
+    <t>2526買進</t>
+  </si>
+  <si>
+    <t>2537買進</t>
+  </si>
+  <si>
+    <t>2558買進</t>
+  </si>
+  <si>
+    <t>2573買進</t>
+  </si>
+  <si>
+    <t>2603買進</t>
+  </si>
+  <si>
+    <t>2594買進</t>
+  </si>
+  <si>
+    <t>2551買進</t>
+  </si>
+  <si>
+    <t>2556買進</t>
+  </si>
+  <si>
+    <t>2535買進</t>
+  </si>
+  <si>
+    <t>2568買進</t>
+  </si>
+  <si>
+    <t>2597買進</t>
+  </si>
+  <si>
+    <t>2607買進</t>
+  </si>
+  <si>
+    <t>2606買進</t>
+  </si>
+  <si>
+    <t>2581買進</t>
+  </si>
+  <si>
+    <t>2548買進</t>
+  </si>
+  <si>
+    <t>2550買進</t>
+  </si>
+  <si>
+    <t>2543買進</t>
+  </si>
+  <si>
+    <t>2546買進</t>
+  </si>
+  <si>
+    <t>2561買進</t>
+  </si>
+  <si>
+    <t>2584買進</t>
+  </si>
+  <si>
+    <t>2570買進</t>
+  </si>
+  <si>
+    <t>2563買進</t>
+  </si>
+  <si>
+    <t>2574買進</t>
+  </si>
+  <si>
+    <t>2589買進</t>
+  </si>
+  <si>
+    <t>2578買進</t>
+  </si>
+  <si>
+    <t>2600買進</t>
+  </si>
+  <si>
+    <t>2587買進</t>
+  </si>
+  <si>
+    <t>2585買進</t>
+  </si>
+  <si>
+    <t>2595買進</t>
+  </si>
+  <si>
+    <t>2601買進</t>
+  </si>
+  <si>
+    <t>2596買進</t>
+  </si>
+  <si>
+    <t>2598買進</t>
+  </si>
+  <si>
+    <t>2599買進</t>
+  </si>
+  <si>
+    <t>2617買進</t>
+  </si>
+  <si>
+    <t>2654買進</t>
+  </si>
+  <si>
+    <t>2664買進</t>
+  </si>
+  <si>
+    <t>2659買進</t>
+  </si>
+  <si>
+    <t>2647買進</t>
+  </si>
+  <si>
+    <t>2667買進</t>
+  </si>
+  <si>
+    <t>2702買進</t>
+  </si>
+  <si>
+    <t>2712買進</t>
+  </si>
+  <si>
+    <t>2721買進</t>
+  </si>
+  <si>
+    <t>2743買進</t>
+  </si>
+  <si>
+    <t>2740買進</t>
+  </si>
+  <si>
+    <t>2738買進</t>
+  </si>
+  <si>
+    <t>2731買進</t>
+  </si>
+  <si>
+    <t>2704買進</t>
+  </si>
+  <si>
+    <t>2715買進</t>
+  </si>
+  <si>
+    <t>2729買進</t>
+  </si>
+  <si>
+    <t>2753買進</t>
+  </si>
+  <si>
+    <t>2748買進</t>
+  </si>
+  <si>
+    <t>2759買進</t>
+  </si>
+  <si>
+    <t>2755買進</t>
+  </si>
+  <si>
+    <t>2786買進</t>
+  </si>
+  <si>
+    <t>2809買進</t>
+  </si>
+  <si>
+    <t>2825買進</t>
+  </si>
+  <si>
+    <t>2836買進</t>
+  </si>
+  <si>
+    <t>2832買進</t>
+  </si>
+  <si>
+    <t>2828買進</t>
+  </si>
+  <si>
+    <t>2881買進</t>
+  </si>
+  <si>
+    <t>2877買進</t>
+  </si>
+  <si>
+    <t>2844買進</t>
+  </si>
+  <si>
+    <t>2829買進</t>
+  </si>
+  <si>
+    <t>2813買進</t>
+  </si>
+  <si>
+    <t>2783買進</t>
+  </si>
+  <si>
+    <t>2745買進</t>
+  </si>
+  <si>
+    <t>2801買進</t>
+  </si>
+  <si>
+    <t>2812買進</t>
+  </si>
+  <si>
+    <t>2765買進</t>
+  </si>
+  <si>
+    <t>2796買進</t>
+  </si>
+  <si>
+    <t>2793買進</t>
+  </si>
+  <si>
+    <t>2788買進</t>
+  </si>
+  <si>
+    <t>2778買進</t>
+  </si>
+  <si>
+    <t>2779買進</t>
+  </si>
+  <si>
+    <t>2758買進</t>
+  </si>
+  <si>
+    <t>2763買進</t>
+  </si>
+  <si>
+    <t>2790買進</t>
+  </si>
+  <si>
+    <t>2802買進</t>
+  </si>
+  <si>
+    <t>2835買進</t>
+  </si>
+  <si>
+    <t>2858買進</t>
+  </si>
+  <si>
+    <t>2823買進</t>
+  </si>
+  <si>
+    <t>2799買進</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +2189,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1143,10 +2211,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>241</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1154,10 +2222,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>242</v>
       </c>
       <c r="C3" t="s">
-        <v>182</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1165,10 +2233,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>243</v>
       </c>
       <c r="C4" t="s">
-        <v>183</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1176,10 +2244,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>244</v>
       </c>
       <c r="C5" t="s">
-        <v>184</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1187,10 +2255,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>245</v>
       </c>
       <c r="C6" t="s">
-        <v>185</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1198,10 +2266,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>242</v>
       </c>
       <c r="C7" t="s">
-        <v>181</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1209,10 +2277,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>242</v>
       </c>
       <c r="C8" t="s">
-        <v>181</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1220,10 +2288,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>246</v>
       </c>
       <c r="C9" t="s">
-        <v>186</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1231,10 +2299,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>247</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>435</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1242,10 +2310,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>243</v>
       </c>
       <c r="C11" t="s">
-        <v>188</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1253,10 +2321,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>248</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>437</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1264,10 +2332,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>249</v>
       </c>
       <c r="C13" t="s">
-        <v>187</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1275,10 +2343,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>249</v>
       </c>
       <c r="C14" t="s">
-        <v>187</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1286,10 +2354,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>249</v>
       </c>
       <c r="C15" t="s">
-        <v>187</v>
+        <v>435</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1297,10 +2365,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>250</v>
       </c>
       <c r="C16" t="s">
-        <v>190</v>
+        <v>438</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1308,10 +2376,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>248</v>
       </c>
       <c r="C17" t="s">
-        <v>189</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1319,10 +2387,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>251</v>
       </c>
       <c r="C18" t="s">
-        <v>191</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1330,10 +2398,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>252</v>
       </c>
       <c r="C19" t="s">
-        <v>192</v>
+        <v>440</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1341,10 +2409,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>253</v>
       </c>
       <c r="C20" t="s">
-        <v>193</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1352,10 +2420,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>254</v>
       </c>
       <c r="C21" t="s">
-        <v>194</v>
+        <v>442</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1363,10 +2431,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>253</v>
       </c>
       <c r="C22" t="s">
-        <v>193</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1374,10 +2442,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>255</v>
       </c>
       <c r="C23" t="s">
-        <v>195</v>
+        <v>443</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1385,10 +2453,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>255</v>
       </c>
       <c r="C24" t="s">
-        <v>195</v>
+        <v>443</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1396,10 +2464,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>256</v>
       </c>
       <c r="C25" t="s">
-        <v>195</v>
+        <v>443</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1407,10 +2475,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>256</v>
       </c>
       <c r="C26" t="s">
-        <v>196</v>
+        <v>444</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1418,10 +2486,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>253</v>
       </c>
       <c r="C27" t="s">
-        <v>193</v>
+        <v>441</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1429,10 +2497,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>257</v>
       </c>
       <c r="C28" t="s">
-        <v>197</v>
+        <v>445</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1440,10 +2508,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>122</v>
+        <v>258</v>
       </c>
       <c r="C29" t="s">
-        <v>198</v>
+        <v>446</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1451,10 +2519,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>259</v>
       </c>
       <c r="C30" t="s">
-        <v>199</v>
+        <v>447</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1462,10 +2530,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
+        <v>258</v>
       </c>
       <c r="C31" t="s">
-        <v>198</v>
+        <v>446</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1473,10 +2541,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>260</v>
       </c>
       <c r="C32" t="s">
-        <v>200</v>
+        <v>448</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1484,10 +2552,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>125</v>
+        <v>261</v>
       </c>
       <c r="C33" t="s">
-        <v>201</v>
+        <v>449</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1495,10 +2563,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>262</v>
       </c>
       <c r="C34" t="s">
-        <v>202</v>
+        <v>450</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1506,10 +2574,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>127</v>
+        <v>263</v>
       </c>
       <c r="C35" t="s">
-        <v>200</v>
+        <v>448</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1517,10 +2585,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>128</v>
+        <v>264</v>
       </c>
       <c r="C36" t="s">
-        <v>203</v>
+        <v>451</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1528,10 +2596,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>265</v>
       </c>
       <c r="C37" t="s">
-        <v>198</v>
+        <v>446</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1539,10 +2607,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>256</v>
       </c>
       <c r="C38" t="s">
-        <v>195</v>
+        <v>443</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1550,10 +2618,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>253</v>
       </c>
       <c r="C39" t="s">
-        <v>204</v>
+        <v>452</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1561,10 +2629,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>255</v>
       </c>
       <c r="C40" t="s">
-        <v>195</v>
+        <v>443</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1572,10 +2640,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>130</v>
+        <v>266</v>
       </c>
       <c r="C41" t="s">
-        <v>186</v>
+        <v>434</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1583,10 +2651,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>131</v>
+        <v>267</v>
       </c>
       <c r="C42" t="s">
-        <v>205</v>
+        <v>453</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1594,10 +2662,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>107</v>
+        <v>243</v>
       </c>
       <c r="C43" t="s">
-        <v>188</v>
+        <v>436</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1605,10 +2673,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>268</v>
       </c>
       <c r="C44" t="s">
-        <v>206</v>
+        <v>454</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1616,10 +2684,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>269</v>
       </c>
       <c r="C45" t="s">
-        <v>207</v>
+        <v>455</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1627,10 +2695,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>134</v>
+        <v>270</v>
       </c>
       <c r="C46" t="s">
-        <v>208</v>
+        <v>456</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1638,10 +2706,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
+        <v>271</v>
       </c>
       <c r="C47" t="s">
-        <v>209</v>
+        <v>457</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1649,10 +2717,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>251</v>
       </c>
       <c r="C48" t="s">
-        <v>185</v>
+        <v>433</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1660,10 +2728,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>109</v>
+        <v>245</v>
       </c>
       <c r="C49" t="s">
-        <v>185</v>
+        <v>433</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1671,10 +2739,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>248</v>
       </c>
       <c r="C50" t="s">
-        <v>210</v>
+        <v>458</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1682,10 +2750,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
+        <v>241</v>
       </c>
       <c r="C51" t="s">
-        <v>181</v>
+        <v>429</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1693,10 +2761,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>117</v>
+        <v>253</v>
       </c>
       <c r="C52" t="s">
-        <v>193</v>
+        <v>441</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1704,10 +2772,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>113</v>
+        <v>249</v>
       </c>
       <c r="C53" t="s">
-        <v>187</v>
+        <v>435</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1715,10 +2783,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>134</v>
+        <v>270</v>
       </c>
       <c r="C54" t="s">
-        <v>208</v>
+        <v>456</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1726,10 +2794,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>135</v>
+        <v>271</v>
       </c>
       <c r="C55" t="s">
-        <v>209</v>
+        <v>457</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1737,10 +2805,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>136</v>
+        <v>272</v>
       </c>
       <c r="C56" t="s">
-        <v>211</v>
+        <v>459</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1748,10 +2816,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>137</v>
+        <v>273</v>
       </c>
       <c r="C57" t="s">
-        <v>212</v>
+        <v>460</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1759,10 +2827,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>123</v>
+        <v>259</v>
       </c>
       <c r="C58" t="s">
-        <v>199</v>
+        <v>447</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1770,10 +2838,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>138</v>
+        <v>274</v>
       </c>
       <c r="C59" t="s">
-        <v>213</v>
+        <v>461</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1781,10 +2849,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>139</v>
+        <v>275</v>
       </c>
       <c r="C60" t="s">
-        <v>214</v>
+        <v>462</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1792,10 +2860,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>140</v>
+        <v>276</v>
       </c>
       <c r="C61" t="s">
-        <v>215</v>
+        <v>463</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1803,10 +2871,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>141</v>
+        <v>277</v>
       </c>
       <c r="C62" t="s">
-        <v>216</v>
+        <v>464</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1814,10 +2882,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>142</v>
+        <v>278</v>
       </c>
       <c r="C63" t="s">
-        <v>217</v>
+        <v>465</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1825,10 +2893,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>143</v>
+        <v>279</v>
       </c>
       <c r="C64" t="s">
-        <v>218</v>
+        <v>466</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1836,10 +2904,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>144</v>
+        <v>280</v>
       </c>
       <c r="C65" t="s">
-        <v>219</v>
+        <v>467</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1847,10 +2915,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>145</v>
+        <v>281</v>
       </c>
       <c r="C66" t="s">
-        <v>220</v>
+        <v>468</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1858,10 +2926,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>146</v>
+        <v>282</v>
       </c>
       <c r="C67" t="s">
-        <v>221</v>
+        <v>469</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1869,10 +2937,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>147</v>
+        <v>283</v>
       </c>
       <c r="C68" t="s">
-        <v>222</v>
+        <v>470</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1880,10 +2948,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>148</v>
+        <v>284</v>
       </c>
       <c r="C69" t="s">
-        <v>223</v>
+        <v>471</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1891,10 +2959,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>149</v>
+        <v>285</v>
       </c>
       <c r="C70" t="s">
-        <v>224</v>
+        <v>472</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1902,10 +2970,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>147</v>
+        <v>283</v>
       </c>
       <c r="C71" t="s">
-        <v>222</v>
+        <v>470</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1913,10 +2981,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>150</v>
+        <v>286</v>
       </c>
       <c r="C72" t="s">
-        <v>223</v>
+        <v>471</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1924,10 +2992,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>151</v>
+        <v>287</v>
       </c>
       <c r="C73" t="s">
-        <v>225</v>
+        <v>473</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1935,10 +3003,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>152</v>
+        <v>288</v>
       </c>
       <c r="C74" t="s">
-        <v>226</v>
+        <v>474</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1946,10 +3014,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>153</v>
+        <v>289</v>
       </c>
       <c r="C75" t="s">
-        <v>227</v>
+        <v>475</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1957,10 +3025,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>154</v>
+        <v>290</v>
       </c>
       <c r="C76" t="s">
-        <v>228</v>
+        <v>476</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1968,10 +3036,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>155</v>
+        <v>291</v>
       </c>
       <c r="C77" t="s">
-        <v>229</v>
+        <v>477</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1979,10 +3047,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>156</v>
+        <v>292</v>
       </c>
       <c r="C78" t="s">
-        <v>230</v>
+        <v>478</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1990,10 +3058,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>157</v>
+        <v>293</v>
       </c>
       <c r="C79" t="s">
-        <v>231</v>
+        <v>479</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2001,10 +3069,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>158</v>
+        <v>294</v>
       </c>
       <c r="C80" t="s">
-        <v>232</v>
+        <v>480</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2012,10 +3080,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>159</v>
+        <v>295</v>
       </c>
       <c r="C81" t="s">
-        <v>232</v>
+        <v>480</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2023,10 +3091,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>160</v>
+        <v>296</v>
       </c>
       <c r="C82" t="s">
-        <v>233</v>
+        <v>481</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2034,10 +3102,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>161</v>
+        <v>297</v>
       </c>
       <c r="C83" t="s">
-        <v>234</v>
+        <v>482</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2045,10 +3113,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>162</v>
+        <v>298</v>
       </c>
       <c r="C84" t="s">
-        <v>235</v>
+        <v>483</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2056,10 +3124,10 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="C85" t="s">
-        <v>236</v>
+        <v>484</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2067,10 +3135,10 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>164</v>
+        <v>300</v>
       </c>
       <c r="C86" t="s">
-        <v>237</v>
+        <v>485</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2078,10 +3146,10 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>165</v>
+        <v>301</v>
       </c>
       <c r="C87" t="s">
-        <v>238</v>
+        <v>486</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2089,10 +3157,10 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>166</v>
+        <v>302</v>
       </c>
       <c r="C88" t="s">
-        <v>239</v>
+        <v>487</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2100,10 +3168,10 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>167</v>
+        <v>303</v>
       </c>
       <c r="C89" t="s">
-        <v>233</v>
+        <v>481</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2111,10 +3179,10 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>168</v>
+        <v>304</v>
       </c>
       <c r="C90" t="s">
-        <v>240</v>
+        <v>488</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2122,10 +3190,10 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>161</v>
+        <v>297</v>
       </c>
       <c r="C91" t="s">
-        <v>234</v>
+        <v>482</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2133,10 +3201,10 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>169</v>
+        <v>305</v>
       </c>
       <c r="C92" t="s">
-        <v>241</v>
+        <v>489</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2144,10 +3212,10 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>170</v>
+        <v>306</v>
       </c>
       <c r="C93" t="s">
-        <v>242</v>
+        <v>490</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2155,10 +3223,10 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>171</v>
+        <v>307</v>
       </c>
       <c r="C94" t="s">
-        <v>239</v>
+        <v>487</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2166,10 +3234,10 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>172</v>
+        <v>308</v>
       </c>
       <c r="C95" t="s">
-        <v>243</v>
+        <v>491</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2177,10 +3245,10 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>173</v>
+        <v>309</v>
       </c>
       <c r="C96" t="s">
-        <v>244</v>
+        <v>492</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2188,10 +3256,10 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>174</v>
+        <v>310</v>
       </c>
       <c r="C97" t="s">
-        <v>245</v>
+        <v>493</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2199,10 +3267,10 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>175</v>
+        <v>311</v>
       </c>
       <c r="C98" t="s">
-        <v>232</v>
+        <v>480</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2210,10 +3278,10 @@
         <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>176</v>
+        <v>312</v>
       </c>
       <c r="C99" t="s">
-        <v>236</v>
+        <v>484</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2221,10 +3289,10 @@
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>177</v>
+        <v>313</v>
       </c>
       <c r="C100" t="s">
-        <v>246</v>
+        <v>494</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2232,10 +3300,10 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>178</v>
+        <v>314</v>
       </c>
       <c r="C101" t="s">
-        <v>247</v>
+        <v>495</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2243,10 +3311,10 @@
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>179</v>
+        <v>315</v>
       </c>
       <c r="C102" t="s">
-        <v>248</v>
+        <v>496</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2254,10 +3322,1506 @@
         <v>104</v>
       </c>
       <c r="B103" t="s">
+        <v>316</v>
+      </c>
+      <c r="C103" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" t="s">
+        <v>317</v>
+      </c>
+      <c r="C104" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" t="s">
+        <v>318</v>
+      </c>
+      <c r="C105" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" t="s">
+        <v>297</v>
+      </c>
+      <c r="C106" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" t="s">
+        <v>319</v>
+      </c>
+      <c r="C107" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" t="s">
+        <v>320</v>
+      </c>
+      <c r="C108" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" t="s">
+        <v>321</v>
+      </c>
+      <c r="C109" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" t="s">
+        <v>322</v>
+      </c>
+      <c r="C110" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" t="s">
+        <v>323</v>
+      </c>
+      <c r="C111" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" t="s">
+        <v>306</v>
+      </c>
+      <c r="C112" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" t="s">
+        <v>324</v>
+      </c>
+      <c r="C113" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" t="s">
+        <v>325</v>
+      </c>
+      <c r="C114" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" t="s">
+        <v>326</v>
+      </c>
+      <c r="C115" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" t="s">
+        <v>308</v>
+      </c>
+      <c r="C116" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" t="s">
+        <v>327</v>
+      </c>
+      <c r="C117" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" t="s">
+        <v>328</v>
+      </c>
+      <c r="C118" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" t="s">
+        <v>324</v>
+      </c>
+      <c r="C119" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" t="s">
+        <v>329</v>
+      </c>
+      <c r="C120" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121" t="s">
+        <v>330</v>
+      </c>
+      <c r="C121" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" t="s">
+        <v>331</v>
+      </c>
+      <c r="C122" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123" t="s">
+        <v>332</v>
+      </c>
+      <c r="C123" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124" t="s">
+        <v>333</v>
+      </c>
+      <c r="C124" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125" t="s">
+        <v>294</v>
+      </c>
+      <c r="C125" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126" t="s">
+        <v>334</v>
+      </c>
+      <c r="C126" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127" t="s">
+        <v>330</v>
+      </c>
+      <c r="C127" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128" t="s">
+        <v>335</v>
+      </c>
+      <c r="C128" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129" t="s">
+        <v>336</v>
+      </c>
+      <c r="C129" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130" t="s">
+        <v>313</v>
+      </c>
+      <c r="C130" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" t="s">
+        <v>337</v>
+      </c>
+      <c r="C131" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132" t="s">
+        <v>338</v>
+      </c>
+      <c r="C132" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133" t="s">
+        <v>339</v>
+      </c>
+      <c r="C133" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134" t="s">
+        <v>339</v>
+      </c>
+      <c r="C134" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135" t="s">
+        <v>340</v>
+      </c>
+      <c r="C135" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136" t="s">
+        <v>341</v>
+      </c>
+      <c r="C136" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137" t="s">
+        <v>342</v>
+      </c>
+      <c r="C137" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138" t="s">
+        <v>343</v>
+      </c>
+      <c r="C138" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139" t="s">
+        <v>344</v>
+      </c>
+      <c r="C139" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140" t="s">
+        <v>345</v>
+      </c>
+      <c r="C140" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141" t="s">
+        <v>346</v>
+      </c>
+      <c r="C141" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142" t="s">
+        <v>347</v>
+      </c>
+      <c r="C142" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>144</v>
+      </c>
+      <c r="B143" t="s">
+        <v>348</v>
+      </c>
+      <c r="C143" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144" t="s">
+        <v>349</v>
+      </c>
+      <c r="C144" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145" t="s">
+        <v>350</v>
+      </c>
+      <c r="C145" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>147</v>
+      </c>
+      <c r="B146" t="s">
+        <v>351</v>
+      </c>
+      <c r="C146" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>148</v>
+      </c>
+      <c r="B147" t="s">
+        <v>352</v>
+      </c>
+      <c r="C147" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148" t="s">
+        <v>353</v>
+      </c>
+      <c r="C148" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149" t="s">
+        <v>354</v>
+      </c>
+      <c r="C149" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150" t="s">
+        <v>355</v>
+      </c>
+      <c r="C150" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151" t="s">
+        <v>318</v>
+      </c>
+      <c r="C151" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>153</v>
+      </c>
+      <c r="B152" t="s">
+        <v>318</v>
+      </c>
+      <c r="C152" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153" t="s">
+        <v>356</v>
+      </c>
+      <c r="C153" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154" t="s">
+        <v>357</v>
+      </c>
+      <c r="C154" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>156</v>
+      </c>
+      <c r="B155" t="s">
+        <v>358</v>
+      </c>
+      <c r="C155" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>157</v>
+      </c>
+      <c r="B156" t="s">
+        <v>359</v>
+      </c>
+      <c r="C156" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>158</v>
+      </c>
+      <c r="B157" t="s">
+        <v>360</v>
+      </c>
+      <c r="C157" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>159</v>
+      </c>
+      <c r="B158" t="s">
+        <v>361</v>
+      </c>
+      <c r="C158" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>160</v>
+      </c>
+      <c r="B159" t="s">
+        <v>318</v>
+      </c>
+      <c r="C159" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>161</v>
+      </c>
+      <c r="B160" t="s">
+        <v>362</v>
+      </c>
+      <c r="C160" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>162</v>
+      </c>
+      <c r="B161" t="s">
+        <v>363</v>
+      </c>
+      <c r="C161" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>163</v>
+      </c>
+      <c r="B162" t="s">
+        <v>364</v>
+      </c>
+      <c r="C162" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>164</v>
+      </c>
+      <c r="B163" t="s">
+        <v>365</v>
+      </c>
+      <c r="C163" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>165</v>
+      </c>
+      <c r="B164" t="s">
+        <v>366</v>
+      </c>
+      <c r="C164" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>166</v>
+      </c>
+      <c r="B165" t="s">
+        <v>367</v>
+      </c>
+      <c r="C165" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>167</v>
+      </c>
+      <c r="B166" t="s">
+        <v>368</v>
+      </c>
+      <c r="C166" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>168</v>
+      </c>
+      <c r="B167" t="s">
+        <v>369</v>
+      </c>
+      <c r="C167" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>169</v>
+      </c>
+      <c r="B168" t="s">
+        <v>370</v>
+      </c>
+      <c r="C168" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>170</v>
+      </c>
+      <c r="B169" t="s">
+        <v>371</v>
+      </c>
+      <c r="C169" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>171</v>
+      </c>
+      <c r="B170" t="s">
+        <v>372</v>
+      </c>
+      <c r="C170" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>172</v>
+      </c>
+      <c r="B171" t="s">
+        <v>373</v>
+      </c>
+      <c r="C171" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>173</v>
+      </c>
+      <c r="B172" t="s">
+        <v>374</v>
+      </c>
+      <c r="C172" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>174</v>
+      </c>
+      <c r="B173" t="s">
+        <v>375</v>
+      </c>
+      <c r="C173" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>175</v>
+      </c>
+      <c r="B174" t="s">
+        <v>376</v>
+      </c>
+      <c r="C174" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>176</v>
+      </c>
+      <c r="B175" t="s">
+        <v>377</v>
+      </c>
+      <c r="C175" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>177</v>
+      </c>
+      <c r="B176" t="s">
+        <v>369</v>
+      </c>
+      <c r="C176" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>178</v>
+      </c>
+      <c r="B177" t="s">
+        <v>361</v>
+      </c>
+      <c r="C177" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>179</v>
+      </c>
+      <c r="B178" t="s">
+        <v>378</v>
+      </c>
+      <c r="C178" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
         <v>180</v>
       </c>
-      <c r="C103" t="s">
-        <v>249</v>
+      <c r="B179" t="s">
+        <v>379</v>
+      </c>
+      <c r="C179" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>181</v>
+      </c>
+      <c r="B180" t="s">
+        <v>380</v>
+      </c>
+      <c r="C180" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>182</v>
+      </c>
+      <c r="B181" t="s">
+        <v>361</v>
+      </c>
+      <c r="C181" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>183</v>
+      </c>
+      <c r="B182" t="s">
+        <v>381</v>
+      </c>
+      <c r="C182" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>184</v>
+      </c>
+      <c r="B183" t="s">
+        <v>350</v>
+      </c>
+      <c r="C183" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>185</v>
+      </c>
+      <c r="B184" t="s">
+        <v>379</v>
+      </c>
+      <c r="C184" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>186</v>
+      </c>
+      <c r="B185" t="s">
+        <v>358</v>
+      </c>
+      <c r="C185" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>187</v>
+      </c>
+      <c r="B186" t="s">
+        <v>369</v>
+      </c>
+      <c r="C186" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>188</v>
+      </c>
+      <c r="B187" t="s">
+        <v>359</v>
+      </c>
+      <c r="C187" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>189</v>
+      </c>
+      <c r="B188" t="s">
+        <v>382</v>
+      </c>
+      <c r="C188" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>190</v>
+      </c>
+      <c r="B189" t="s">
+        <v>383</v>
+      </c>
+      <c r="C189" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>191</v>
+      </c>
+      <c r="B190" t="s">
+        <v>384</v>
+      </c>
+      <c r="C190" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>192</v>
+      </c>
+      <c r="B191" t="s">
+        <v>385</v>
+      </c>
+      <c r="C191" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>193</v>
+      </c>
+      <c r="B192" t="s">
+        <v>385</v>
+      </c>
+      <c r="C192" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>194</v>
+      </c>
+      <c r="B193" t="s">
+        <v>386</v>
+      </c>
+      <c r="C193" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>195</v>
+      </c>
+      <c r="B194" t="s">
+        <v>387</v>
+      </c>
+      <c r="C194" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>196</v>
+      </c>
+      <c r="B195" t="s">
+        <v>388</v>
+      </c>
+      <c r="C195" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>197</v>
+      </c>
+      <c r="B196" t="s">
+        <v>389</v>
+      </c>
+      <c r="C196" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>198</v>
+      </c>
+      <c r="B197" t="s">
+        <v>390</v>
+      </c>
+      <c r="C197" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>199</v>
+      </c>
+      <c r="B198" t="s">
+        <v>391</v>
+      </c>
+      <c r="C198" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>200</v>
+      </c>
+      <c r="B199" t="s">
+        <v>392</v>
+      </c>
+      <c r="C199" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>201</v>
+      </c>
+      <c r="B200" t="s">
+        <v>393</v>
+      </c>
+      <c r="C200" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>202</v>
+      </c>
+      <c r="B201" t="s">
+        <v>394</v>
+      </c>
+      <c r="C201" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>203</v>
+      </c>
+      <c r="B202" t="s">
+        <v>395</v>
+      </c>
+      <c r="C202" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>204</v>
+      </c>
+      <c r="B203" t="s">
+        <v>396</v>
+      </c>
+      <c r="C203" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>205</v>
+      </c>
+      <c r="B204" t="s">
+        <v>397</v>
+      </c>
+      <c r="C204" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>206</v>
+      </c>
+      <c r="B205" t="s">
+        <v>398</v>
+      </c>
+      <c r="C205" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>207</v>
+      </c>
+      <c r="B206" t="s">
+        <v>399</v>
+      </c>
+      <c r="C206" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>208</v>
+      </c>
+      <c r="B207" t="s">
+        <v>399</v>
+      </c>
+      <c r="C207" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>209</v>
+      </c>
+      <c r="B208" t="s">
+        <v>400</v>
+      </c>
+      <c r="C208" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
+        <v>210</v>
+      </c>
+      <c r="B209" t="s">
+        <v>400</v>
+      </c>
+      <c r="C209" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>211</v>
+      </c>
+      <c r="B210" t="s">
+        <v>401</v>
+      </c>
+      <c r="C210" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>212</v>
+      </c>
+      <c r="B211" t="s">
+        <v>402</v>
+      </c>
+      <c r="C211" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
+        <v>213</v>
+      </c>
+      <c r="B212" t="s">
+        <v>403</v>
+      </c>
+      <c r="C212" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
+        <v>214</v>
+      </c>
+      <c r="B213" t="s">
+        <v>404</v>
+      </c>
+      <c r="C213" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
+        <v>215</v>
+      </c>
+      <c r="B214" t="s">
+        <v>405</v>
+      </c>
+      <c r="C214" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>216</v>
+      </c>
+      <c r="B215" t="s">
+        <v>406</v>
+      </c>
+      <c r="C215" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>217</v>
+      </c>
+      <c r="B216" t="s">
+        <v>406</v>
+      </c>
+      <c r="C216" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>218</v>
+      </c>
+      <c r="B217" t="s">
+        <v>407</v>
+      </c>
+      <c r="C217" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
+        <v>219</v>
+      </c>
+      <c r="B218" t="s">
+        <v>408</v>
+      </c>
+      <c r="C218" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>220</v>
+      </c>
+      <c r="B219" t="s">
+        <v>409</v>
+      </c>
+      <c r="C219" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
+        <v>221</v>
+      </c>
+      <c r="B220" t="s">
+        <v>410</v>
+      </c>
+      <c r="C220" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>222</v>
+      </c>
+      <c r="B221" t="s">
+        <v>411</v>
+      </c>
+      <c r="C221" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>223</v>
+      </c>
+      <c r="B222" t="s">
+        <v>412</v>
+      </c>
+      <c r="C222" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>224</v>
+      </c>
+      <c r="B223" t="s">
+        <v>413</v>
+      </c>
+      <c r="C223" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>225</v>
+      </c>
+      <c r="B224" t="s">
+        <v>414</v>
+      </c>
+      <c r="C224" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>226</v>
+      </c>
+      <c r="B225" t="s">
+        <v>415</v>
+      </c>
+      <c r="C225" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>227</v>
+      </c>
+      <c r="B226" t="s">
+        <v>416</v>
+      </c>
+      <c r="C226" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>228</v>
+      </c>
+      <c r="B227" t="s">
+        <v>417</v>
+      </c>
+      <c r="C227" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
+        <v>229</v>
+      </c>
+      <c r="B228" t="s">
+        <v>418</v>
+      </c>
+      <c r="C228" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>230</v>
+      </c>
+      <c r="B229" t="s">
+        <v>419</v>
+      </c>
+      <c r="C229" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>231</v>
+      </c>
+      <c r="B230" t="s">
+        <v>420</v>
+      </c>
+      <c r="C230" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>232</v>
+      </c>
+      <c r="B231" t="s">
+        <v>421</v>
+      </c>
+      <c r="C231" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>233</v>
+      </c>
+      <c r="B232" t="s">
+        <v>422</v>
+      </c>
+      <c r="C232" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
+        <v>234</v>
+      </c>
+      <c r="B233" t="s">
+        <v>423</v>
+      </c>
+      <c r="C233" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
+        <v>235</v>
+      </c>
+      <c r="B234" t="s">
+        <v>424</v>
+      </c>
+      <c r="C234" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>236</v>
+      </c>
+      <c r="B235" t="s">
+        <v>414</v>
+      </c>
+      <c r="C235" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
+        <v>237</v>
+      </c>
+      <c r="B236" t="s">
+        <v>425</v>
+      </c>
+      <c r="C236" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
+        <v>238</v>
+      </c>
+      <c r="B237" t="s">
+        <v>426</v>
+      </c>
+      <c r="C237" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
+        <v>239</v>
+      </c>
+      <c r="B238" t="s">
+        <v>427</v>
+      </c>
+      <c r="C238" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>240</v>
+      </c>
+      <c r="B239" t="s">
+        <v>428</v>
+      </c>
+      <c r="C239" t="s">
+        <v>605</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="630">
   <si>
     <t>掛牌時間</t>
   </si>
@@ -739,6 +739,33 @@
     <t>2024/12/13 19:51</t>
   </si>
   <si>
+    <t>2024/12/16 10:00</t>
+  </si>
+  <si>
+    <t>2024/12/20 10:10</t>
+  </si>
+  <si>
+    <t>2024/12/20 19:51</t>
+  </si>
+  <si>
+    <t>2024/12/23 08:40</t>
+  </si>
+  <si>
+    <t>2024/12/30 14:50</t>
+  </si>
+  <si>
+    <t>2024/12/31 15:15</t>
+  </si>
+  <si>
+    <t>2025/01/06 10:20</t>
+  </si>
+  <si>
+    <t>2025/01/14 08:40</t>
+  </si>
+  <si>
+    <t>2025/01/17 19:56</t>
+  </si>
+  <si>
     <t>1968回售</t>
   </si>
   <si>
@@ -1303,6 +1330,30 @@
     <t>2761回售</t>
   </si>
   <si>
+    <t>2756回售</t>
+  </si>
+  <si>
+    <t>2714回售</t>
+  </si>
+  <si>
+    <t>2736回售</t>
+  </si>
+  <si>
+    <t>2742回售</t>
+  </si>
+  <si>
+    <t>2730回售</t>
+  </si>
+  <si>
+    <t>2781回售</t>
+  </si>
+  <si>
+    <t>2820回售</t>
+  </si>
+  <si>
+    <t>2841回售</t>
+  </si>
+  <si>
     <t>1994買進</t>
   </si>
   <si>
@@ -1832,6 +1883,27 @@
   </si>
   <si>
     <t>2799買進</t>
+  </si>
+  <si>
+    <t>2752買進</t>
+  </si>
+  <si>
+    <t>2770買進</t>
+  </si>
+  <si>
+    <t>2776買進</t>
+  </si>
+  <si>
+    <t>2764買進</t>
+  </si>
+  <si>
+    <t>2815買進</t>
+  </si>
+  <si>
+    <t>2854買進</t>
+  </si>
+  <si>
+    <t>2880買進</t>
   </si>
 </sst>
 </file>
@@ -2189,7 +2261,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C239"/>
+  <dimension ref="A1:C248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2211,10 +2283,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="C2" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2222,10 +2294,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="C3" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2233,10 +2305,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="C4" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2244,10 +2316,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C5" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2255,10 +2327,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C6" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2266,10 +2338,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="C7" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2277,10 +2349,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="C8" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2288,10 +2360,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C9" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2299,10 +2371,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="C10" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2310,10 +2382,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="C11" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2321,10 +2393,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C12" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2332,10 +2404,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="C13" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2343,10 +2415,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="C14" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2354,10 +2426,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="C15" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2365,10 +2437,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C16" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2376,10 +2448,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C17" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2387,10 +2459,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C18" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2398,10 +2470,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="C19" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2409,10 +2481,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="C20" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2420,10 +2492,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C21" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2431,10 +2503,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="C22" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2442,10 +2514,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C23" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2453,10 +2525,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C24" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2464,10 +2536,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="C25" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2475,10 +2547,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="C26" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2486,10 +2558,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="C27" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2497,10 +2569,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="C28" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2508,10 +2580,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C29" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2519,10 +2591,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C30" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2530,10 +2602,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C31" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2541,10 +2613,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="C32" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2552,10 +2624,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="C33" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2563,10 +2635,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="C34" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2574,10 +2646,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="C35" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2585,10 +2657,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="C36" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2596,10 +2668,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C37" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2607,10 +2679,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="C38" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2618,10 +2690,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="C39" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2629,10 +2701,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C40" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2640,10 +2712,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="C41" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2651,10 +2723,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="C42" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2662,10 +2734,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="C43" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2673,10 +2745,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="C44" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2684,10 +2756,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="C45" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2695,10 +2767,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="C46" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2706,10 +2778,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="C47" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2717,10 +2789,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C48" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2728,10 +2800,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C49" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2739,10 +2811,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C50" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2750,10 +2822,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="C51" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2761,10 +2833,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="C52" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2772,10 +2844,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="C53" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2783,10 +2855,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="C54" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2794,10 +2866,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="C55" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2805,10 +2877,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="C56" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2816,10 +2888,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="C57" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2827,10 +2899,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C58" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2838,10 +2910,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C59" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2849,10 +2921,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C60" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2860,10 +2932,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="C61" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2871,10 +2943,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="C62" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2882,10 +2954,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="C63" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2893,10 +2965,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="C64" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2904,10 +2976,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="C65" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2915,10 +2987,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="C66" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2926,10 +2998,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="C67" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2937,10 +3009,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="C68" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2948,10 +3020,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="C69" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2959,10 +3031,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="C70" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2970,10 +3042,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="C71" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2981,10 +3053,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="C72" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2992,10 +3064,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="C73" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3003,10 +3075,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="C74" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3014,10 +3086,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="C75" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3025,10 +3097,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C76" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3036,10 +3108,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="C77" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3047,10 +3119,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="C78" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3058,10 +3130,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="C79" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3069,10 +3141,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="C80" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3080,10 +3152,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="C81" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3091,10 +3163,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="C82" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3102,10 +3174,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="C83" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3113,10 +3185,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C84" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3124,10 +3196,10 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="C85" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3135,10 +3207,10 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="C86" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3146,10 +3218,10 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="C87" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3157,10 +3229,10 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="C88" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3168,10 +3240,10 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="C89" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3179,10 +3251,10 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="C90" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3190,10 +3262,10 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="C91" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3201,10 +3273,10 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="C92" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3212,10 +3284,10 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="C93" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3223,10 +3295,10 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="C94" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3234,10 +3306,10 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="C95" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3245,10 +3317,10 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="C96" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3256,10 +3328,10 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="C97" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3267,10 +3339,10 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C98" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3278,10 +3350,10 @@
         <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="C99" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3289,10 +3361,10 @@
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C100" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3300,10 +3372,10 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="C101" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3311,10 +3383,10 @@
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="C102" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3322,10 +3394,10 @@
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="C103" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3333,10 +3405,10 @@
         <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="C104" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3344,10 +3416,10 @@
         <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="C105" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3355,10 +3427,10 @@
         <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="C106" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3366,10 +3438,10 @@
         <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C107" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3377,10 +3449,10 @@
         <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="C108" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3388,10 +3460,10 @@
         <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="C109" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3399,10 +3471,10 @@
         <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="C110" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3410,10 +3482,10 @@
         <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="C111" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3421,10 +3493,10 @@
         <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="C112" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3432,10 +3504,10 @@
         <v>114</v>
       </c>
       <c r="B113" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="C113" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3443,10 +3515,10 @@
         <v>115</v>
       </c>
       <c r="B114" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="C114" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3454,10 +3526,10 @@
         <v>116</v>
       </c>
       <c r="B115" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="C115" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3465,10 +3537,10 @@
         <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="C116" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3476,10 +3548,10 @@
         <v>118</v>
       </c>
       <c r="B117" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="C117" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3487,10 +3559,10 @@
         <v>119</v>
       </c>
       <c r="B118" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="C118" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3498,10 +3570,10 @@
         <v>120</v>
       </c>
       <c r="B119" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="C119" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3509,10 +3581,10 @@
         <v>121</v>
       </c>
       <c r="B120" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="C120" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3520,10 +3592,10 @@
         <v>122</v>
       </c>
       <c r="B121" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="C121" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3531,10 +3603,10 @@
         <v>123</v>
       </c>
       <c r="B122" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="C122" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3542,10 +3614,10 @@
         <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="C123" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3553,10 +3625,10 @@
         <v>125</v>
       </c>
       <c r="B124" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C124" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3564,10 +3636,10 @@
         <v>126</v>
       </c>
       <c r="B125" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="C125" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3575,10 +3647,10 @@
         <v>127</v>
       </c>
       <c r="B126" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="C126" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3586,10 +3658,10 @@
         <v>128</v>
       </c>
       <c r="B127" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="C127" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3597,10 +3669,10 @@
         <v>129</v>
       </c>
       <c r="B128" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="C128" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3608,10 +3680,10 @@
         <v>130</v>
       </c>
       <c r="B129" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="C129" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3619,10 +3691,10 @@
         <v>131</v>
       </c>
       <c r="B130" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C130" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3630,10 +3702,10 @@
         <v>132</v>
       </c>
       <c r="B131" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="C131" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3641,10 +3713,10 @@
         <v>133</v>
       </c>
       <c r="B132" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="C132" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3652,10 +3724,10 @@
         <v>134</v>
       </c>
       <c r="B133" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="C133" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3663,10 +3735,10 @@
         <v>135</v>
       </c>
       <c r="B134" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="C134" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3674,10 +3746,10 @@
         <v>136</v>
       </c>
       <c r="B135" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="C135" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3685,10 +3757,10 @@
         <v>137</v>
       </c>
       <c r="B136" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="C136" t="s">
-        <v>520</v>
+        <v>537</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3696,10 +3768,10 @@
         <v>138</v>
       </c>
       <c r="B137" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="C137" t="s">
-        <v>521</v>
+        <v>538</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3707,10 +3779,10 @@
         <v>139</v>
       </c>
       <c r="B138" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="C138" t="s">
-        <v>522</v>
+        <v>539</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3718,10 +3790,10 @@
         <v>140</v>
       </c>
       <c r="B139" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="C139" t="s">
-        <v>523</v>
+        <v>540</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3729,10 +3801,10 @@
         <v>141</v>
       </c>
       <c r="B140" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="C140" t="s">
-        <v>524</v>
+        <v>541</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3740,10 +3812,10 @@
         <v>142</v>
       </c>
       <c r="B141" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="C141" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3751,10 +3823,10 @@
         <v>143</v>
       </c>
       <c r="B142" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="C142" t="s">
-        <v>526</v>
+        <v>543</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3762,10 +3834,10 @@
         <v>144</v>
       </c>
       <c r="B143" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="C143" t="s">
-        <v>527</v>
+        <v>544</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3773,10 +3845,10 @@
         <v>145</v>
       </c>
       <c r="B144" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="C144" t="s">
-        <v>528</v>
+        <v>545</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3784,10 +3856,10 @@
         <v>146</v>
       </c>
       <c r="B145" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="C145" t="s">
-        <v>529</v>
+        <v>546</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3795,10 +3867,10 @@
         <v>147</v>
       </c>
       <c r="B146" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="C146" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3806,10 +3878,10 @@
         <v>148</v>
       </c>
       <c r="B147" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="C147" t="s">
-        <v>526</v>
+        <v>543</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3817,10 +3889,10 @@
         <v>149</v>
       </c>
       <c r="B148" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="C148" t="s">
-        <v>531</v>
+        <v>548</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3828,10 +3900,10 @@
         <v>150</v>
       </c>
       <c r="B149" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="C149" t="s">
-        <v>526</v>
+        <v>543</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3839,10 +3911,10 @@
         <v>151</v>
       </c>
       <c r="B150" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C150" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3850,10 +3922,10 @@
         <v>152</v>
       </c>
       <c r="B151" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="C151" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3861,10 +3933,10 @@
         <v>153</v>
       </c>
       <c r="B152" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="C152" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3872,10 +3944,10 @@
         <v>154</v>
       </c>
       <c r="B153" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="C153" t="s">
-        <v>532</v>
+        <v>549</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3883,10 +3955,10 @@
         <v>155</v>
       </c>
       <c r="B154" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="C154" t="s">
-        <v>533</v>
+        <v>550</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3894,10 +3966,10 @@
         <v>156</v>
       </c>
       <c r="B155" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="C155" t="s">
-        <v>534</v>
+        <v>551</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3905,10 +3977,10 @@
         <v>157</v>
       </c>
       <c r="B156" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="C156" t="s">
-        <v>535</v>
+        <v>552</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3916,10 +3988,10 @@
         <v>158</v>
       </c>
       <c r="B157" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="C157" t="s">
-        <v>536</v>
+        <v>553</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3927,10 +3999,10 @@
         <v>159</v>
       </c>
       <c r="B158" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="C158" t="s">
-        <v>537</v>
+        <v>554</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3938,10 +4010,10 @@
         <v>160</v>
       </c>
       <c r="B159" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="C159" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3949,10 +4021,10 @@
         <v>161</v>
       </c>
       <c r="B160" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="C160" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3960,10 +4032,10 @@
         <v>162</v>
       </c>
       <c r="B161" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="C161" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3971,10 +4043,10 @@
         <v>163</v>
       </c>
       <c r="B162" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C162" t="s">
-        <v>532</v>
+        <v>549</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3982,10 +4054,10 @@
         <v>164</v>
       </c>
       <c r="B163" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="C163" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3993,10 +4065,10 @@
         <v>165</v>
       </c>
       <c r="B164" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="C164" t="s">
-        <v>540</v>
+        <v>557</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -4004,10 +4076,10 @@
         <v>166</v>
       </c>
       <c r="B165" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="C165" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -4015,10 +4087,10 @@
         <v>167</v>
       </c>
       <c r="B166" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="C166" t="s">
-        <v>542</v>
+        <v>559</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -4026,10 +4098,10 @@
         <v>168</v>
       </c>
       <c r="B167" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="C167" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -4037,10 +4109,10 @@
         <v>169</v>
       </c>
       <c r="B168" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="C168" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -4048,10 +4120,10 @@
         <v>170</v>
       </c>
       <c r="B169" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="C169" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4059,10 +4131,10 @@
         <v>171</v>
       </c>
       <c r="B170" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="C170" t="s">
-        <v>546</v>
+        <v>563</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4070,10 +4142,10 @@
         <v>172</v>
       </c>
       <c r="B171" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="C171" t="s">
-        <v>547</v>
+        <v>564</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -4081,10 +4153,10 @@
         <v>173</v>
       </c>
       <c r="B172" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="C172" t="s">
-        <v>548</v>
+        <v>565</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4092,10 +4164,10 @@
         <v>174</v>
       </c>
       <c r="B173" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="C173" t="s">
-        <v>549</v>
+        <v>566</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -4103,10 +4175,10 @@
         <v>175</v>
       </c>
       <c r="B174" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="C174" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4114,10 +4186,10 @@
         <v>176</v>
       </c>
       <c r="B175" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="C175" t="s">
-        <v>529</v>
+        <v>546</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4125,10 +4197,10 @@
         <v>177</v>
       </c>
       <c r="B176" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="C176" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4136,10 +4208,10 @@
         <v>178</v>
       </c>
       <c r="B177" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="C177" t="s">
-        <v>551</v>
+        <v>568</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4147,10 +4219,10 @@
         <v>179</v>
       </c>
       <c r="B178" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="C178" t="s">
-        <v>551</v>
+        <v>568</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4158,10 +4230,10 @@
         <v>180</v>
       </c>
       <c r="B179" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="C179" t="s">
-        <v>552</v>
+        <v>569</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -4169,10 +4241,10 @@
         <v>181</v>
       </c>
       <c r="B180" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="C180" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4180,10 +4252,10 @@
         <v>182</v>
       </c>
       <c r="B181" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="C181" t="s">
-        <v>551</v>
+        <v>568</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -4191,10 +4263,10 @@
         <v>183</v>
       </c>
       <c r="B182" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="C182" t="s">
-        <v>554</v>
+        <v>571</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4202,10 +4274,10 @@
         <v>184</v>
       </c>
       <c r="B183" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="C183" t="s">
-        <v>555</v>
+        <v>572</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -4213,10 +4285,10 @@
         <v>185</v>
       </c>
       <c r="B184" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="C184" t="s">
-        <v>556</v>
+        <v>573</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -4224,10 +4296,10 @@
         <v>186</v>
       </c>
       <c r="B185" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="C185" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4235,10 +4307,10 @@
         <v>187</v>
       </c>
       <c r="B186" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="C186" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -4246,10 +4318,10 @@
         <v>188</v>
       </c>
       <c r="B187" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="C187" t="s">
-        <v>535</v>
+        <v>552</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4257,10 +4329,10 @@
         <v>189</v>
       </c>
       <c r="B188" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="C188" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4268,10 +4340,10 @@
         <v>190</v>
       </c>
       <c r="B189" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="C189" t="s">
-        <v>558</v>
+        <v>575</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4279,10 +4351,10 @@
         <v>191</v>
       </c>
       <c r="B190" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="C190" t="s">
-        <v>559</v>
+        <v>576</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4290,10 +4362,10 @@
         <v>192</v>
       </c>
       <c r="B191" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="C191" t="s">
-        <v>559</v>
+        <v>576</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4301,10 +4373,10 @@
         <v>193</v>
       </c>
       <c r="B192" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="C192" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4312,10 +4384,10 @@
         <v>194</v>
       </c>
       <c r="B193" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="C193" t="s">
-        <v>561</v>
+        <v>578</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4323,10 +4395,10 @@
         <v>195</v>
       </c>
       <c r="B194" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="C194" t="s">
-        <v>562</v>
+        <v>579</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4334,10 +4406,10 @@
         <v>196</v>
       </c>
       <c r="B195" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="C195" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4345,10 +4417,10 @@
         <v>197</v>
       </c>
       <c r="B196" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="C196" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4356,10 +4428,10 @@
         <v>198</v>
       </c>
       <c r="B197" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="C197" t="s">
-        <v>565</v>
+        <v>582</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4367,10 +4439,10 @@
         <v>199</v>
       </c>
       <c r="B198" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="C198" t="s">
-        <v>566</v>
+        <v>583</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4378,10 +4450,10 @@
         <v>200</v>
       </c>
       <c r="B199" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="C199" t="s">
-        <v>567</v>
+        <v>584</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4389,10 +4461,10 @@
         <v>201</v>
       </c>
       <c r="B200" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="C200" t="s">
-        <v>568</v>
+        <v>585</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4400,10 +4472,10 @@
         <v>202</v>
       </c>
       <c r="B201" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="C201" t="s">
-        <v>569</v>
+        <v>586</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -4411,10 +4483,10 @@
         <v>203</v>
       </c>
       <c r="B202" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="C202" t="s">
-        <v>570</v>
+        <v>587</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4422,10 +4494,10 @@
         <v>204</v>
       </c>
       <c r="B203" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="C203" t="s">
-        <v>571</v>
+        <v>588</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4433,10 +4505,10 @@
         <v>205</v>
       </c>
       <c r="B204" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="C204" t="s">
-        <v>572</v>
+        <v>589</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4444,10 +4516,10 @@
         <v>206</v>
       </c>
       <c r="B205" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C205" t="s">
-        <v>573</v>
+        <v>590</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4455,10 +4527,10 @@
         <v>207</v>
       </c>
       <c r="B206" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="C206" t="s">
-        <v>574</v>
+        <v>591</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4466,10 +4538,10 @@
         <v>208</v>
       </c>
       <c r="B207" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="C207" t="s">
-        <v>573</v>
+        <v>590</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4477,10 +4549,10 @@
         <v>209</v>
       </c>
       <c r="B208" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="C208" t="s">
-        <v>575</v>
+        <v>592</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4488,10 +4560,10 @@
         <v>210</v>
       </c>
       <c r="B209" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="C209" t="s">
-        <v>576</v>
+        <v>593</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4499,10 +4571,10 @@
         <v>211</v>
       </c>
       <c r="B210" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="C210" t="s">
-        <v>576</v>
+        <v>593</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4510,10 +4582,10 @@
         <v>212</v>
       </c>
       <c r="B211" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="C211" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4521,10 +4593,10 @@
         <v>213</v>
       </c>
       <c r="B212" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="C212" t="s">
-        <v>578</v>
+        <v>595</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4532,10 +4604,10 @@
         <v>214</v>
       </c>
       <c r="B213" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="C213" t="s">
-        <v>579</v>
+        <v>596</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4543,10 +4615,10 @@
         <v>215</v>
       </c>
       <c r="B214" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="C214" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4554,10 +4626,10 @@
         <v>216</v>
       </c>
       <c r="B215" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="C215" t="s">
-        <v>581</v>
+        <v>598</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4565,10 +4637,10 @@
         <v>217</v>
       </c>
       <c r="B216" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="C216" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4576,10 +4648,10 @@
         <v>218</v>
       </c>
       <c r="B217" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="C217" t="s">
-        <v>583</v>
+        <v>600</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4587,10 +4659,10 @@
         <v>219</v>
       </c>
       <c r="B218" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="C218" t="s">
-        <v>584</v>
+        <v>601</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4598,10 +4670,10 @@
         <v>220</v>
       </c>
       <c r="B219" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="C219" t="s">
-        <v>585</v>
+        <v>602</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -4609,10 +4681,10 @@
         <v>221</v>
       </c>
       <c r="B220" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="C220" t="s">
-        <v>586</v>
+        <v>603</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4620,10 +4692,10 @@
         <v>222</v>
       </c>
       <c r="B221" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="C221" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4631,10 +4703,10 @@
         <v>223</v>
       </c>
       <c r="B222" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="C222" t="s">
-        <v>588</v>
+        <v>605</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4642,10 +4714,10 @@
         <v>224</v>
       </c>
       <c r="B223" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="C223" t="s">
-        <v>589</v>
+        <v>606</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4653,10 +4725,10 @@
         <v>225</v>
       </c>
       <c r="B224" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="C224" t="s">
-        <v>590</v>
+        <v>607</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4664,10 +4736,10 @@
         <v>226</v>
       </c>
       <c r="B225" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="C225" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4675,10 +4747,10 @@
         <v>227</v>
       </c>
       <c r="B226" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="C226" t="s">
-        <v>592</v>
+        <v>609</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4686,10 +4758,10 @@
         <v>228</v>
       </c>
       <c r="B227" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="C227" t="s">
-        <v>593</v>
+        <v>610</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4697,10 +4769,10 @@
         <v>229</v>
       </c>
       <c r="B228" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="C228" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4708,10 +4780,10 @@
         <v>230</v>
       </c>
       <c r="B229" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="C229" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -4719,10 +4791,10 @@
         <v>231</v>
       </c>
       <c r="B230" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="C230" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -4730,10 +4802,10 @@
         <v>232</v>
       </c>
       <c r="B231" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="C231" t="s">
-        <v>597</v>
+        <v>614</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4741,10 +4813,10 @@
         <v>233</v>
       </c>
       <c r="B232" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="C232" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4752,10 +4824,10 @@
         <v>234</v>
       </c>
       <c r="B233" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="C233" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4763,10 +4835,10 @@
         <v>235</v>
       </c>
       <c r="B234" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="C234" t="s">
-        <v>600</v>
+        <v>617</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4774,10 +4846,10 @@
         <v>236</v>
       </c>
       <c r="B235" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="C235" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -4785,10 +4857,10 @@
         <v>237</v>
       </c>
       <c r="B236" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="C236" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4796,10 +4868,10 @@
         <v>238</v>
       </c>
       <c r="B237" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="C237" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -4807,10 +4879,10 @@
         <v>239</v>
       </c>
       <c r="B238" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="C238" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -4818,10 +4890,109 @@
         <v>240</v>
       </c>
       <c r="B239" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="C239" t="s">
-        <v>605</v>
+        <v>622</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>241</v>
+      </c>
+      <c r="B240" t="s">
+        <v>438</v>
+      </c>
+      <c r="C240" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
+        <v>242</v>
+      </c>
+      <c r="B241" t="s">
+        <v>410</v>
+      </c>
+      <c r="C241" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
+        <v>243</v>
+      </c>
+      <c r="B242" t="s">
+        <v>439</v>
+      </c>
+      <c r="C242" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
+        <v>244</v>
+      </c>
+      <c r="B243" t="s">
+        <v>440</v>
+      </c>
+      <c r="C243" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
+        <v>245</v>
+      </c>
+      <c r="B244" t="s">
+        <v>441</v>
+      </c>
+      <c r="C244" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" t="s">
+        <v>246</v>
+      </c>
+      <c r="B245" t="s">
+        <v>442</v>
+      </c>
+      <c r="C245" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
+        <v>247</v>
+      </c>
+      <c r="B246" t="s">
+        <v>443</v>
+      </c>
+      <c r="C246" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
+        <v>248</v>
+      </c>
+      <c r="B247" t="s">
+        <v>444</v>
+      </c>
+      <c r="C247" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
+        <v>249</v>
+      </c>
+      <c r="B248" t="s">
+        <v>445</v>
+      </c>
+      <c r="C248" t="s">
+        <v>629</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="642">
   <si>
     <t>掛牌時間</t>
   </si>
@@ -766,6 +766,18 @@
     <t>2025/01/17 19:56</t>
   </si>
   <si>
+    <t>2025/01/20 09:10</t>
+  </si>
+  <si>
+    <t>2025/01/24 19:58</t>
+  </si>
+  <si>
+    <t>2025/02/03 12:55</t>
+  </si>
+  <si>
+    <t>2025/02/11 19:51</t>
+  </si>
+  <si>
     <t>1968回售</t>
   </si>
   <si>
@@ -1354,6 +1366,18 @@
     <t>2841回售</t>
   </si>
   <si>
+    <t>2826回售</t>
+  </si>
+  <si>
+    <t>2893回售</t>
+  </si>
+  <si>
+    <t>2941回售</t>
+  </si>
+  <si>
+    <t>3044回售</t>
+  </si>
+  <si>
     <t>1994買進</t>
   </si>
   <si>
@@ -1904,6 +1928,18 @@
   </si>
   <si>
     <t>2880買進</t>
+  </si>
+  <si>
+    <t>2860買進</t>
+  </si>
+  <si>
+    <t>2932買進</t>
+  </si>
+  <si>
+    <t>2976買進</t>
+  </si>
+  <si>
+    <t>3085買進</t>
   </si>
 </sst>
 </file>
@@ -2261,7 +2297,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C248"/>
+  <dimension ref="A1:C252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2283,10 +2319,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C2" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2294,10 +2330,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C3" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2305,10 +2341,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C4" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2316,10 +2352,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C5" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2327,10 +2363,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C6" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2338,10 +2374,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2349,10 +2385,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C8" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2360,10 +2396,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C9" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2371,10 +2407,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C10" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2382,10 +2418,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C11" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2393,10 +2429,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C12" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2404,10 +2440,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C13" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2415,10 +2451,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C14" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2426,10 +2462,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C15" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2437,10 +2473,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C16" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2448,10 +2484,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C17" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2459,10 +2495,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C18" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2470,10 +2506,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C19" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2481,10 +2517,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C20" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2492,10 +2528,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C21" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2503,10 +2539,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C22" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2514,10 +2550,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C23" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2525,10 +2561,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C24" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2536,10 +2572,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C25" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2547,10 +2583,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C26" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2558,10 +2594,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C27" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2569,10 +2605,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C28" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2580,10 +2616,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C29" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2591,10 +2627,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C30" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2602,10 +2638,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C31" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2613,10 +2649,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C32" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2624,10 +2660,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C33" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2635,10 +2671,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C34" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2646,10 +2682,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C35" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2657,10 +2693,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C36" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2668,10 +2704,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C37" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2679,10 +2715,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C38" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2690,10 +2726,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C39" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2701,10 +2737,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C40" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2712,10 +2748,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C41" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2723,10 +2759,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C42" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2734,10 +2770,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C43" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2745,10 +2781,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C44" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2756,10 +2792,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C45" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2767,10 +2803,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C46" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2778,10 +2814,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C47" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2789,10 +2825,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C48" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2800,10 +2836,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C49" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2811,10 +2847,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C50" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2822,10 +2858,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C51" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2833,10 +2869,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C52" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2844,10 +2880,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C53" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2855,10 +2891,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C54" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2866,10 +2902,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C55" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2877,10 +2913,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C56" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2888,10 +2924,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C57" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2899,10 +2935,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C58" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2910,10 +2946,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C59" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2921,10 +2957,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C60" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2932,10 +2968,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C61" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2943,10 +2979,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C62" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2954,10 +2990,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C63" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2965,10 +3001,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C64" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2976,10 +3012,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C65" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2987,10 +3023,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C66" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2998,10 +3034,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C67" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -3009,10 +3045,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C68" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3020,10 +3056,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C69" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3031,10 +3067,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C70" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3042,10 +3078,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C71" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3053,10 +3089,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C72" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3064,10 +3100,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C73" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3075,10 +3111,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C74" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3086,10 +3122,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C75" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3097,10 +3133,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C76" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3108,10 +3144,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C77" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3119,10 +3155,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C78" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3130,10 +3166,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C79" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3141,10 +3177,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C80" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3152,10 +3188,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C81" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3163,10 +3199,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C82" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3174,10 +3210,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C83" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3185,10 +3221,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C84" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3196,10 +3232,10 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C85" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3207,10 +3243,10 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C86" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3218,10 +3254,10 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C87" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3229,10 +3265,10 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C88" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3240,10 +3276,10 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C89" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3251,10 +3287,10 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C90" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3262,10 +3298,10 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C91" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3273,10 +3309,10 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C92" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3284,10 +3320,10 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C93" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3295,10 +3331,10 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C94" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3306,10 +3342,10 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C95" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3317,10 +3353,10 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C96" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3328,10 +3364,10 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C97" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3339,10 +3375,10 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C98" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3350,10 +3386,10 @@
         <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C99" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3361,10 +3397,10 @@
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C100" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3372,10 +3408,10 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C101" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3383,10 +3419,10 @@
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C102" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3394,10 +3430,10 @@
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C103" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3405,10 +3441,10 @@
         <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C104" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3416,10 +3452,10 @@
         <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C105" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3427,10 +3463,10 @@
         <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C106" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3438,10 +3474,10 @@
         <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C107" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3449,10 +3485,10 @@
         <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C108" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3460,10 +3496,10 @@
         <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C109" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3471,10 +3507,10 @@
         <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C110" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3482,10 +3518,10 @@
         <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C111" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3493,10 +3529,10 @@
         <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C112" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3504,10 +3540,10 @@
         <v>114</v>
       </c>
       <c r="B113" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C113" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3515,10 +3551,10 @@
         <v>115</v>
       </c>
       <c r="B114" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C114" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3526,10 +3562,10 @@
         <v>116</v>
       </c>
       <c r="B115" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C115" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3537,10 +3573,10 @@
         <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C116" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3548,10 +3584,10 @@
         <v>118</v>
       </c>
       <c r="B117" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C117" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3559,10 +3595,10 @@
         <v>119</v>
       </c>
       <c r="B118" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C118" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3570,10 +3606,10 @@
         <v>120</v>
       </c>
       <c r="B119" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C119" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3581,10 +3617,10 @@
         <v>121</v>
       </c>
       <c r="B120" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C120" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3592,10 +3628,10 @@
         <v>122</v>
       </c>
       <c r="B121" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C121" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3603,10 +3639,10 @@
         <v>123</v>
       </c>
       <c r="B122" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C122" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3614,10 +3650,10 @@
         <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C123" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3625,10 +3661,10 @@
         <v>125</v>
       </c>
       <c r="B124" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C124" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3636,10 +3672,10 @@
         <v>126</v>
       </c>
       <c r="B125" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C125" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3647,10 +3683,10 @@
         <v>127</v>
       </c>
       <c r="B126" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C126" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3658,10 +3694,10 @@
         <v>128</v>
       </c>
       <c r="B127" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C127" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3669,10 +3705,10 @@
         <v>129</v>
       </c>
       <c r="B128" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C128" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3680,10 +3716,10 @@
         <v>130</v>
       </c>
       <c r="B129" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C129" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3691,10 +3727,10 @@
         <v>131</v>
       </c>
       <c r="B130" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C130" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3702,10 +3738,10 @@
         <v>132</v>
       </c>
       <c r="B131" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C131" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3713,10 +3749,10 @@
         <v>133</v>
       </c>
       <c r="B132" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C132" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3724,10 +3760,10 @@
         <v>134</v>
       </c>
       <c r="B133" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C133" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3735,10 +3771,10 @@
         <v>135</v>
       </c>
       <c r="B134" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C134" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3746,10 +3782,10 @@
         <v>136</v>
       </c>
       <c r="B135" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C135" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3757,10 +3793,10 @@
         <v>137</v>
       </c>
       <c r="B136" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C136" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3768,10 +3804,10 @@
         <v>138</v>
       </c>
       <c r="B137" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C137" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3779,10 +3815,10 @@
         <v>139</v>
       </c>
       <c r="B138" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C138" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3790,10 +3826,10 @@
         <v>140</v>
       </c>
       <c r="B139" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C139" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3801,10 +3837,10 @@
         <v>141</v>
       </c>
       <c r="B140" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C140" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3812,10 +3848,10 @@
         <v>142</v>
       </c>
       <c r="B141" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C141" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3823,10 +3859,10 @@
         <v>143</v>
       </c>
       <c r="B142" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C142" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3834,10 +3870,10 @@
         <v>144</v>
       </c>
       <c r="B143" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C143" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3845,10 +3881,10 @@
         <v>145</v>
       </c>
       <c r="B144" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C144" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3856,10 +3892,10 @@
         <v>146</v>
       </c>
       <c r="B145" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C145" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3867,10 +3903,10 @@
         <v>147</v>
       </c>
       <c r="B146" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C146" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3878,10 +3914,10 @@
         <v>148</v>
       </c>
       <c r="B147" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C147" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3889,10 +3925,10 @@
         <v>149</v>
       </c>
       <c r="B148" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C148" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3900,10 +3936,10 @@
         <v>150</v>
       </c>
       <c r="B149" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C149" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3911,10 +3947,10 @@
         <v>151</v>
       </c>
       <c r="B150" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C150" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3922,10 +3958,10 @@
         <v>152</v>
       </c>
       <c r="B151" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C151" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3933,10 +3969,10 @@
         <v>153</v>
       </c>
       <c r="B152" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C152" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3944,10 +3980,10 @@
         <v>154</v>
       </c>
       <c r="B153" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C153" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3955,10 +3991,10 @@
         <v>155</v>
       </c>
       <c r="B154" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C154" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3966,10 +4002,10 @@
         <v>156</v>
       </c>
       <c r="B155" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C155" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3977,10 +4013,10 @@
         <v>157</v>
       </c>
       <c r="B156" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C156" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3988,10 +4024,10 @@
         <v>158</v>
       </c>
       <c r="B157" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C157" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3999,10 +4035,10 @@
         <v>159</v>
       </c>
       <c r="B158" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C158" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -4010,10 +4046,10 @@
         <v>160</v>
       </c>
       <c r="B159" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C159" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -4021,10 +4057,10 @@
         <v>161</v>
       </c>
       <c r="B160" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C160" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -4032,10 +4068,10 @@
         <v>162</v>
       </c>
       <c r="B161" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C161" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -4043,10 +4079,10 @@
         <v>163</v>
       </c>
       <c r="B162" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C162" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -4054,10 +4090,10 @@
         <v>164</v>
       </c>
       <c r="B163" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C163" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -4065,10 +4101,10 @@
         <v>165</v>
       </c>
       <c r="B164" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C164" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -4076,10 +4112,10 @@
         <v>166</v>
       </c>
       <c r="B165" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C165" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -4087,10 +4123,10 @@
         <v>167</v>
       </c>
       <c r="B166" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C166" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -4098,10 +4134,10 @@
         <v>168</v>
       </c>
       <c r="B167" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C167" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -4109,10 +4145,10 @@
         <v>169</v>
       </c>
       <c r="B168" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C168" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -4120,10 +4156,10 @@
         <v>170</v>
       </c>
       <c r="B169" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C169" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4131,10 +4167,10 @@
         <v>171</v>
       </c>
       <c r="B170" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C170" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4142,10 +4178,10 @@
         <v>172</v>
       </c>
       <c r="B171" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C171" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -4153,10 +4189,10 @@
         <v>173</v>
       </c>
       <c r="B172" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C172" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4164,10 +4200,10 @@
         <v>174</v>
       </c>
       <c r="B173" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C173" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -4175,10 +4211,10 @@
         <v>175</v>
       </c>
       <c r="B174" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C174" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4186,10 +4222,10 @@
         <v>176</v>
       </c>
       <c r="B175" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C175" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4197,10 +4233,10 @@
         <v>177</v>
       </c>
       <c r="B176" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C176" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4208,10 +4244,10 @@
         <v>178</v>
       </c>
       <c r="B177" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C177" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4219,10 +4255,10 @@
         <v>179</v>
       </c>
       <c r="B178" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C178" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4230,10 +4266,10 @@
         <v>180</v>
       </c>
       <c r="B179" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C179" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -4241,10 +4277,10 @@
         <v>181</v>
       </c>
       <c r="B180" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C180" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4252,10 +4288,10 @@
         <v>182</v>
       </c>
       <c r="B181" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C181" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -4263,10 +4299,10 @@
         <v>183</v>
       </c>
       <c r="B182" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C182" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4274,10 +4310,10 @@
         <v>184</v>
       </c>
       <c r="B183" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C183" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -4285,10 +4321,10 @@
         <v>185</v>
       </c>
       <c r="B184" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C184" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -4296,10 +4332,10 @@
         <v>186</v>
       </c>
       <c r="B185" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C185" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4307,10 +4343,10 @@
         <v>187</v>
       </c>
       <c r="B186" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C186" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -4318,10 +4354,10 @@
         <v>188</v>
       </c>
       <c r="B187" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C187" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4329,10 +4365,10 @@
         <v>189</v>
       </c>
       <c r="B188" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C188" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4340,10 +4376,10 @@
         <v>190</v>
       </c>
       <c r="B189" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C189" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4351,10 +4387,10 @@
         <v>191</v>
       </c>
       <c r="B190" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C190" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4362,10 +4398,10 @@
         <v>192</v>
       </c>
       <c r="B191" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C191" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4373,10 +4409,10 @@
         <v>193</v>
       </c>
       <c r="B192" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C192" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4384,10 +4420,10 @@
         <v>194</v>
       </c>
       <c r="B193" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C193" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4395,10 +4431,10 @@
         <v>195</v>
       </c>
       <c r="B194" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C194" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4406,10 +4442,10 @@
         <v>196</v>
       </c>
       <c r="B195" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C195" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4417,10 +4453,10 @@
         <v>197</v>
       </c>
       <c r="B196" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C196" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4428,10 +4464,10 @@
         <v>198</v>
       </c>
       <c r="B197" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C197" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4439,10 +4475,10 @@
         <v>199</v>
       </c>
       <c r="B198" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C198" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4450,10 +4486,10 @@
         <v>200</v>
       </c>
       <c r="B199" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C199" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4461,10 +4497,10 @@
         <v>201</v>
       </c>
       <c r="B200" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C200" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4472,10 +4508,10 @@
         <v>202</v>
       </c>
       <c r="B201" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C201" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -4483,10 +4519,10 @@
         <v>203</v>
       </c>
       <c r="B202" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C202" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4494,10 +4530,10 @@
         <v>204</v>
       </c>
       <c r="B203" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C203" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4505,10 +4541,10 @@
         <v>205</v>
       </c>
       <c r="B204" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C204" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4516,10 +4552,10 @@
         <v>206</v>
       </c>
       <c r="B205" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C205" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4527,10 +4563,10 @@
         <v>207</v>
       </c>
       <c r="B206" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C206" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4538,10 +4574,10 @@
         <v>208</v>
       </c>
       <c r="B207" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C207" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4549,10 +4585,10 @@
         <v>209</v>
       </c>
       <c r="B208" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C208" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4560,10 +4596,10 @@
         <v>210</v>
       </c>
       <c r="B209" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C209" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4571,10 +4607,10 @@
         <v>211</v>
       </c>
       <c r="B210" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C210" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4582,10 +4618,10 @@
         <v>212</v>
       </c>
       <c r="B211" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C211" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4593,10 +4629,10 @@
         <v>213</v>
       </c>
       <c r="B212" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C212" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4604,10 +4640,10 @@
         <v>214</v>
       </c>
       <c r="B213" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C213" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4615,10 +4651,10 @@
         <v>215</v>
       </c>
       <c r="B214" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C214" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4626,10 +4662,10 @@
         <v>216</v>
       </c>
       <c r="B215" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C215" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4637,10 +4673,10 @@
         <v>217</v>
       </c>
       <c r="B216" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C216" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4648,10 +4684,10 @@
         <v>218</v>
       </c>
       <c r="B217" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C217" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4659,10 +4695,10 @@
         <v>219</v>
       </c>
       <c r="B218" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C218" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4670,10 +4706,10 @@
         <v>220</v>
       </c>
       <c r="B219" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C219" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -4681,10 +4717,10 @@
         <v>221</v>
       </c>
       <c r="B220" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C220" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4692,10 +4728,10 @@
         <v>222</v>
       </c>
       <c r="B221" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C221" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4703,10 +4739,10 @@
         <v>223</v>
       </c>
       <c r="B222" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C222" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4714,10 +4750,10 @@
         <v>224</v>
       </c>
       <c r="B223" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C223" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4725,10 +4761,10 @@
         <v>225</v>
       </c>
       <c r="B224" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C224" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4736,10 +4772,10 @@
         <v>226</v>
       </c>
       <c r="B225" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C225" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4747,10 +4783,10 @@
         <v>227</v>
       </c>
       <c r="B226" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C226" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4758,10 +4794,10 @@
         <v>228</v>
       </c>
       <c r="B227" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C227" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4769,10 +4805,10 @@
         <v>229</v>
       </c>
       <c r="B228" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C228" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4780,10 +4816,10 @@
         <v>230</v>
       </c>
       <c r="B229" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C229" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -4791,10 +4827,10 @@
         <v>231</v>
       </c>
       <c r="B230" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C230" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -4802,10 +4838,10 @@
         <v>232</v>
       </c>
       <c r="B231" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C231" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4813,10 +4849,10 @@
         <v>233</v>
       </c>
       <c r="B232" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C232" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4824,10 +4860,10 @@
         <v>234</v>
       </c>
       <c r="B233" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C233" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4835,10 +4871,10 @@
         <v>235</v>
       </c>
       <c r="B234" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C234" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4846,10 +4882,10 @@
         <v>236</v>
       </c>
       <c r="B235" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C235" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -4857,10 +4893,10 @@
         <v>237</v>
       </c>
       <c r="B236" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C236" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4868,10 +4904,10 @@
         <v>238</v>
       </c>
       <c r="B237" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C237" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -4879,10 +4915,10 @@
         <v>239</v>
       </c>
       <c r="B238" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C238" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -4890,10 +4926,10 @@
         <v>240</v>
       </c>
       <c r="B239" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C239" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -4901,10 +4937,10 @@
         <v>241</v>
       </c>
       <c r="B240" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C240" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -4912,10 +4948,10 @@
         <v>242</v>
       </c>
       <c r="B241" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C241" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -4923,10 +4959,10 @@
         <v>243</v>
       </c>
       <c r="B242" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C242" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -4934,10 +4970,10 @@
         <v>244</v>
       </c>
       <c r="B243" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C243" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -4945,10 +4981,10 @@
         <v>245</v>
       </c>
       <c r="B244" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C244" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -4956,10 +4992,10 @@
         <v>246</v>
       </c>
       <c r="B245" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C245" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4967,10 +5003,10 @@
         <v>247</v>
       </c>
       <c r="B246" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C246" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -4978,10 +5014,10 @@
         <v>248</v>
       </c>
       <c r="B247" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C247" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -4989,10 +5025,54 @@
         <v>249</v>
       </c>
       <c r="B248" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C248" t="s">
-        <v>629</v>
+        <v>637</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
+        <v>250</v>
+      </c>
+      <c r="B249" t="s">
+        <v>450</v>
+      </c>
+      <c r="C249" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
+        <v>251</v>
+      </c>
+      <c r="B250" t="s">
+        <v>451</v>
+      </c>
+      <c r="C250" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>252</v>
+      </c>
+      <c r="B251" t="s">
+        <v>452</v>
+      </c>
+      <c r="C251" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>253</v>
+      </c>
+      <c r="B252" t="s">
+        <v>453</v>
+      </c>
+      <c r="C252" t="s">
+        <v>641</v>
       </c>
     </row>
   </sheetData>
